--- a/scripts/sos_dataset.xlsx
+++ b/scripts/sos_dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdurkin/Desktop/spicey/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdurkin/Desktop/spicey/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="730">
   <si>
     <t>https://twitter.com/___Swank__/status/902893762501890048</t>
   </si>
@@ -2121,6 +2121,102 @@
   </si>
   <si>
     <t>https://twitter.com/ZieglerTheCat/status/906929636189265922</t>
+  </si>
+  <si>
+    <t>@FLGovScott My 12 year old grandson my daughter are stuck in Port Richey. They can't get out. Please help them.they… https://t.co/jy1M6HOGTE</t>
+  </si>
+  <si>
+    <t>@CrowdRescueHQ 1248 Viking Drive, Holiday, FL 34691 #IrmaSOS</t>
+  </si>
+  <si>
+    <t>Help me find my sister! 862 Big Pine Ave. Big Pine Key @KWPOLICE @USCG #irma #HurrcaneIrma #FloridaKeys #Florida #bigpinekey</t>
+  </si>
+  <si>
+    <t>@CrowdescueHQ #IrmaSOS #HurricaneIrma Dogs left behind in Miami. https://t.co/IOXvQfVVR7</t>
+  </si>
+  <si>
+    <t>@insideFPL We still have no power, since 8am. Address is</t>
+  </si>
+  <si>
+    <t>5961 Toscana Drive Davie Fl, 33314. Please help! #AmliOfToscana #1023 #Davie #Irma</t>
+  </si>
+  <si>
+    <t>@Jeff_Piotrowski could you go by the address 5357 coral wood dr, Naples Fl, 34119 we have family there please</t>
+  </si>
+  <si>
+    <t>@PascoSheriff 3 pets (2 dogs&amp;amp;cat) in desperate need of rescue from Colony Cove mobile home (5150 Damsen Circle).</t>
+  </si>
+  <si>
+    <t>#IrmaPetRescue Help! 3 pets (2 small dogs and cat) in ColonyCove mobile home in New Port Richey-5150 Damsen Circle.Desperately need rescue!</t>
+  </si>
+  <si>
+    <t>Just found out that a guy that takes care of my parents home in NAPLES is still ther me can we get him to a safe place? #IrmaHurricane2017</t>
+  </si>
+  <si>
+    <t>@For_Cripes_Sake @CrowdRescueHQ YesKarl &amp;amp; Marilyn Zimmermann 2319 SE 10th Pl, CapeCoral, cell 239-220-8476, house​… https://t.co/2ZRvMKaeKD</t>
+  </si>
+  <si>
+    <t>@MelbournePolice River Palm Motel Roof caved in people are stuck</t>
+  </si>
+  <si>
+    <t>to get them there? 2 kittens left in finder's yard. #irmapets Contact Justin on fb</t>
+  </si>
+  <si>
+    <t>https://t.co/SbqL7bxk95 https://t.co/cI7z9wz0hF</t>
+  </si>
+  <si>
+    <t>@insideFPL Fpl please help us .... no power since Friday night on 73 Block Wayne Ave, Miami Beach FL 33141.Two tran… https://t.co/demhQmnZXs</t>
+  </si>
+  <si>
+    <t>@FLGovScott They were turned away from a hospice shelter filled. Too sick to stand outside in heat! 3628 Belair Lan… https://t.co/ianMeh6j1z</t>
+  </si>
+  <si>
+    <t>Can someone rescue these three CHAINED dogs and ARREST the sicko 😥who did thisto 3 dogs? #hurricaneIRMA #HSUS… https://t.co/H4k8or4iBr</t>
+  </si>
+  <si>
+    <t>@ReadyBroward 2 Chinese woman located 208 se 12th street,Ft Lauderdale. Speak no English. No power. Need help</t>
+  </si>
+  <si>
+    <t>@MSNBC Lamplight assisted living facility Fort Myers is in evac zone and told there is nowhere 2go. Need help. And no generator #Irma</t>
+  </si>
+  <si>
+    <t>@DAVHQ @realDonaldTrump I am a 70+ year old vet who need help finding help for my family to find shelter in</t>
+  </si>
+  <si>
+    <t>Irma. Pleas help me 8138589762</t>
+  </si>
+  <si>
+    <t>@shiphitsthefan @Macchic81Hicks @MrsMsClassroom @FLGovScott ? 818 95th Ave N, Naples, FL 34108</t>
+  </si>
+  <si>
+    <t>@KWPOLICE @thefloridakeys @mcsonews Elderly parents (whaltons pet str) not heard frm since strm hit 29851 Fischer Ln #BigPineKey #irmaSOS</t>
+  </si>
+  <si>
+    <t>Flint drive Tampa in Clair Mel area need help special needs kids need power plz help asap https://t.co/cj1riJ803P</t>
+  </si>
+  <si>
+    <t>@cityftmyers A college classmate needs to be evacuated. 3440 Dora Street, Fort Myers. She is alone. Help!</t>
+  </si>
+  <si>
+    <t>#IrmaSOS @CrowdRescueHQ</t>
+  </si>
+  <si>
+    <t>402 West Lutz Lake Fern Road</t>
+  </si>
+  <si>
+    <t>LUTZ, FL 33548 https://t.co/tO2PubjV3o</t>
+  </si>
+  <si>
+    <t>#urgent #irmapets @PatrinaC @IrmaUpdate 2 #pitbulls in 8 ft garage need #rescue - owners evacuated. 255 wellon ave… https://t.co/znG7Ewbdur</t>
+  </si>
+  <si>
+    <t>Help needed in #homestead to #rescue a woman and the #dogs she cares for! #hurricaneirma https://t.co/FzrGwystnl</t>
+  </si>
+  <si>
+    <t>@Macchic81Hicks @FLGovScott 818 95th Ave N  34108 4 adults (60, 58, 30, &amp;amp;31) Neighbors-3 adults unknwn ages. 4block… https://t.co/Co6M2tfGIO</t>
+  </si>
+  <si>
+    <t>🚨Tara needs help getting out w/her dogs - please call if you can help 561-856-5961 / she is in #Ormond Beach. #HurricaneIrma  #SOS #florida</t>
   </si>
 </sst>
 </file>
@@ -2455,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:XFD400"/>
+    <sheetView tabSelected="1" topLeftCell="B367" workbookViewId="0">
+      <selection activeCell="C389" sqref="C389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2482,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>TRIM(RIGHT(A2,LEN(A2)-SEARCH("status/",A2)-6))</f>
+        <f t="shared" ref="B2:B65" si="0">TRIM(RIGHT(A2,LEN(A2)-SEARCH("status/",A2)-6))</f>
         <v>902893762501890048</v>
       </c>
       <c r="C2" t="s">
@@ -2494,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>TRIM(RIGHT(A3,LEN(A3)-SEARCH("status/",A3)-6))</f>
+        <f t="shared" si="0"/>
         <v>902922961098768384</v>
       </c>
       <c r="C3" t="s">
@@ -2506,7 +2602,7 @@
         <v>264</v>
       </c>
       <c r="B4" t="str">
-        <f>TRIM(RIGHT(A4,LEN(A4)-SEARCH("status/",A4)-6))</f>
+        <f t="shared" si="0"/>
         <v>901885990452817921</v>
       </c>
       <c r="C4" t="s">
@@ -2518,7 +2614,7 @@
         <v>67</v>
       </c>
       <c r="B5" t="str">
-        <f>TRIM(RIGHT(A5,LEN(A5)-SEARCH("status/",A5)-6))</f>
+        <f t="shared" si="0"/>
         <v>901974959622426629</v>
       </c>
       <c r="C5" t="s">
@@ -2530,7 +2626,7 @@
         <v>277</v>
       </c>
       <c r="B6" t="str">
-        <f>TRIM(RIGHT(A6,LEN(A6)-SEARCH("status/",A6)-6))</f>
+        <f t="shared" si="0"/>
         <v>902931952411475968</v>
       </c>
       <c r="C6" t="s">
@@ -2542,7 +2638,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="str">
-        <f>TRIM(RIGHT(A7,LEN(A7)-SEARCH("status/",A7)-6))</f>
+        <f t="shared" si="0"/>
         <v>902331724851503110</v>
       </c>
       <c r="C7" t="s">
@@ -2554,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="str">
-        <f>TRIM(RIGHT(A8,LEN(A8)-SEARCH("status/",A8)-6))</f>
+        <f t="shared" si="0"/>
         <v>902795560184410112</v>
       </c>
       <c r="C8" t="s">
@@ -2566,7 +2662,7 @@
         <v>279</v>
       </c>
       <c r="B9" t="str">
-        <f>TRIM(RIGHT(A9,LEN(A9)-SEARCH("status/",A9)-6))</f>
+        <f t="shared" si="0"/>
         <v>902361842789601280</v>
       </c>
       <c r="C9" t="s">
@@ -2578,7 +2674,7 @@
         <v>280</v>
       </c>
       <c r="B10" t="str">
-        <f>TRIM(RIGHT(A10,LEN(A10)-SEARCH("status/",A10)-6))</f>
+        <f t="shared" si="0"/>
         <v>902452613559590912</v>
       </c>
       <c r="C10" t="s">
@@ -2590,7 +2686,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="str">
-        <f>TRIM(RIGHT(A11,LEN(A11)-SEARCH("status/",A11)-6))</f>
+        <f t="shared" si="0"/>
         <v>902761341676658688</v>
       </c>
       <c r="C11" t="s">
@@ -2602,7 +2698,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="str">
-        <f>TRIM(RIGHT(A12,LEN(A12)-SEARCH("status/",A12)-6))</f>
+        <f t="shared" si="0"/>
         <v>902359135790002176</v>
       </c>
       <c r="C12" t="s">
@@ -2614,7 +2710,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="str">
-        <f>TRIM(RIGHT(A13,LEN(A13)-SEARCH("status/",A13)-6))</f>
+        <f t="shared" si="0"/>
         <v>902593583395598336</v>
       </c>
       <c r="C13" t="s">
@@ -2626,7 +2722,7 @@
         <v>285</v>
       </c>
       <c r="B14" t="str">
-        <f>TRIM(RIGHT(A14,LEN(A14)-SEARCH("status/",A14)-6))</f>
+        <f t="shared" si="0"/>
         <v>902798825152241664</v>
       </c>
       <c r="C14" t="s">
@@ -2638,7 +2734,7 @@
         <v>210</v>
       </c>
       <c r="B15" t="str">
-        <f>TRIM(RIGHT(A15,LEN(A15)-SEARCH("status/",A15)-6))</f>
+        <f t="shared" si="0"/>
         <v>901968558242111492</v>
       </c>
       <c r="C15" t="s">
@@ -2650,7 +2746,7 @@
         <v>76</v>
       </c>
       <c r="B16" t="str">
-        <f>TRIM(RIGHT(A16,LEN(A16)-SEARCH("status/",A16)-6))</f>
+        <f t="shared" si="0"/>
         <v>901888160984178688</v>
       </c>
       <c r="C16" t="s">
@@ -2662,7 +2758,7 @@
         <v>99</v>
       </c>
       <c r="B17" t="str">
-        <f>TRIM(RIGHT(A17,LEN(A17)-SEARCH("status/",A17)-6))</f>
+        <f t="shared" si="0"/>
         <v>901900173630111744</v>
       </c>
       <c r="C17" t="s">
@@ -2674,7 +2770,7 @@
         <v>109</v>
       </c>
       <c r="B18" t="str">
-        <f>TRIM(RIGHT(A18,LEN(A18)-SEARCH("status/",A18)-6))</f>
+        <f t="shared" si="0"/>
         <v>901929422047125504</v>
       </c>
       <c r="C18" t="s">
@@ -2686,7 +2782,7 @@
         <v>269</v>
       </c>
       <c r="B19" t="str">
-        <f>TRIM(RIGHT(A19,LEN(A19)-SEARCH("status/",A19)-6))</f>
+        <f t="shared" si="0"/>
         <v>901862444166823936</v>
       </c>
       <c r="C19" t="s">
@@ -2698,7 +2794,7 @@
         <v>297</v>
       </c>
       <c r="B20" t="str">
-        <f>TRIM(RIGHT(A20,LEN(A20)-SEARCH("status/",A20)-6))</f>
+        <f t="shared" si="0"/>
         <v>902354222636773376</v>
       </c>
       <c r="C20" t="s">
@@ -2710,7 +2806,7 @@
         <v>146</v>
       </c>
       <c r="B21" t="str">
-        <f>TRIM(RIGHT(A21,LEN(A21)-SEARCH("status/",A21)-6))</f>
+        <f t="shared" si="0"/>
         <v>901953322634145799</v>
       </c>
       <c r="C21" t="s">
@@ -2722,7 +2818,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="str">
-        <f>TRIM(RIGHT(A22,LEN(A22)-SEARCH("status/",A22)-6))</f>
+        <f t="shared" si="0"/>
         <v>901884014201581573</v>
       </c>
       <c r="C22" t="s">
@@ -2734,7 +2830,7 @@
         <v>179</v>
       </c>
       <c r="B23" t="str">
-        <f>TRIM(RIGHT(A23,LEN(A23)-SEARCH("status/",A23)-6))</f>
+        <f t="shared" si="0"/>
         <v>901938982170316800</v>
       </c>
       <c r="C23" t="s">
@@ -2746,7 +2842,7 @@
         <v>69</v>
       </c>
       <c r="B24" t="str">
-        <f>TRIM(RIGHT(A24,LEN(A24)-SEARCH("status/",A24)-6))</f>
+        <f t="shared" si="0"/>
         <v>901869342945619969</v>
       </c>
       <c r="C24" t="s">
@@ -2758,7 +2854,7 @@
         <v>170</v>
       </c>
       <c r="B25" t="str">
-        <f>TRIM(RIGHT(A25,LEN(A25)-SEARCH("status/",A25)-6))</f>
+        <f t="shared" si="0"/>
         <v>901885335684173824</v>
       </c>
       <c r="C25" t="s">
@@ -2770,7 +2866,7 @@
         <v>303</v>
       </c>
       <c r="B26" t="str">
-        <f>TRIM(RIGHT(A26,LEN(A26)-SEARCH("status/",A26)-6))</f>
+        <f t="shared" si="0"/>
         <v>902574047967498240</v>
       </c>
       <c r="C26" t="s">
@@ -2782,7 +2878,7 @@
         <v>304</v>
       </c>
       <c r="B27" t="str">
-        <f>TRIM(RIGHT(A27,LEN(A27)-SEARCH("status/",A27)-6))</f>
+        <f t="shared" si="0"/>
         <v>902582814692003843</v>
       </c>
       <c r="C27" t="s">
@@ -2794,7 +2890,7 @@
         <v>261</v>
       </c>
       <c r="B28" t="str">
-        <f>TRIM(RIGHT(A28,LEN(A28)-SEARCH("status/",A28)-6))</f>
+        <f t="shared" si="0"/>
         <v>901904803005116416</v>
       </c>
       <c r="C28" t="s">
@@ -2806,7 +2902,7 @@
         <v>306</v>
       </c>
       <c r="B29" t="str">
-        <f>TRIM(RIGHT(A29,LEN(A29)-SEARCH("status/",A29)-6))</f>
+        <f t="shared" si="0"/>
         <v>902344493839601664</v>
       </c>
       <c r="C29" t="s">
@@ -2818,7 +2914,7 @@
         <v>77</v>
       </c>
       <c r="B30" t="str">
-        <f>TRIM(RIGHT(A30,LEN(A30)-SEARCH("status/",A30)-6))</f>
+        <f t="shared" si="0"/>
         <v>901969173533908994</v>
       </c>
       <c r="C30" t="s">
@@ -2830,7 +2926,7 @@
         <v>254</v>
       </c>
       <c r="B31" t="str">
-        <f>TRIM(RIGHT(A31,LEN(A31)-SEARCH("status/",A31)-6))</f>
+        <f t="shared" si="0"/>
         <v>901964989665304576</v>
       </c>
       <c r="C31" t="s">
@@ -2842,7 +2938,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="str">
-        <f>TRIM(RIGHT(A32,LEN(A32)-SEARCH("status/",A32)-6))</f>
+        <f t="shared" si="0"/>
         <v>901752911474159616</v>
       </c>
       <c r="C32" t="s">
@@ -2854,7 +2950,7 @@
         <v>106</v>
       </c>
       <c r="B33" t="str">
-        <f>TRIM(RIGHT(A33,LEN(A33)-SEARCH("status/",A33)-6))</f>
+        <f t="shared" si="0"/>
         <v>901913859098890241</v>
       </c>
       <c r="C33" t="s">
@@ -2866,7 +2962,7 @@
         <v>309</v>
       </c>
       <c r="B34" t="str">
-        <f>TRIM(RIGHT(A34,LEN(A34)-SEARCH("status/",A34)-6))</f>
+        <f t="shared" si="0"/>
         <v>902336493171113984</v>
       </c>
       <c r="C34" t="s">
@@ -2878,7 +2974,7 @@
         <v>189</v>
       </c>
       <c r="B35" t="str">
-        <f>TRIM(RIGHT(A35,LEN(A35)-SEARCH("status/",A35)-6))</f>
+        <f t="shared" si="0"/>
         <v>901954449022865408</v>
       </c>
       <c r="C35" t="s">
@@ -2890,7 +2986,7 @@
         <v>223</v>
       </c>
       <c r="B36" t="str">
-        <f>TRIM(RIGHT(A36,LEN(A36)-SEARCH("status/",A36)-6))</f>
+        <f t="shared" si="0"/>
         <v>901979989591171072</v>
       </c>
       <c r="C36" t="s">
@@ -2902,7 +2998,7 @@
         <v>60</v>
       </c>
       <c r="B37" t="str">
-        <f>TRIM(RIGHT(A37,LEN(A37)-SEARCH("status/",A37)-6))</f>
+        <f t="shared" si="0"/>
         <v>901947717810884609</v>
       </c>
       <c r="C37" t="s">
@@ -2914,7 +3010,7 @@
         <v>65</v>
       </c>
       <c r="B38" t="str">
-        <f>TRIM(RIGHT(A38,LEN(A38)-SEARCH("status/",A38)-6))</f>
+        <f t="shared" si="0"/>
         <v>901957355058933760</v>
       </c>
       <c r="C38" t="s">
@@ -2926,7 +3022,7 @@
         <v>271</v>
       </c>
       <c r="B39" t="str">
-        <f>TRIM(RIGHT(A39,LEN(A39)-SEARCH("status/",A39)-6))</f>
+        <f t="shared" si="0"/>
         <v>901886667753185281</v>
       </c>
       <c r="C39" t="s">
@@ -2938,7 +3034,7 @@
         <v>312</v>
       </c>
       <c r="B40" t="str">
-        <f>TRIM(RIGHT(A40,LEN(A40)-SEARCH("status/",A40)-6))</f>
+        <f t="shared" si="0"/>
         <v>902926666913210369</v>
       </c>
       <c r="C40" t="s">
@@ -2950,7 +3046,7 @@
         <v>315</v>
       </c>
       <c r="B41" t="str">
-        <f>TRIM(RIGHT(A41,LEN(A41)-SEARCH("status/",A41)-6))</f>
+        <f t="shared" si="0"/>
         <v>902813160968683520</v>
       </c>
       <c r="C41" t="s">
@@ -2962,7 +3058,7 @@
         <v>218</v>
       </c>
       <c r="B42" t="str">
-        <f>TRIM(RIGHT(A42,LEN(A42)-SEARCH("status/",A42)-6))</f>
+        <f t="shared" si="0"/>
         <v>901943782857433088</v>
       </c>
       <c r="C42" t="s">
@@ -2974,7 +3070,7 @@
         <v>153</v>
       </c>
       <c r="B43" t="str">
-        <f>TRIM(RIGHT(A43,LEN(A43)-SEARCH("status/",A43)-6))</f>
+        <f t="shared" si="0"/>
         <v>901883476986793986</v>
       </c>
       <c r="C43" t="s">
@@ -2986,7 +3082,7 @@
         <v>268</v>
       </c>
       <c r="B44" t="str">
-        <f>TRIM(RIGHT(A44,LEN(A44)-SEARCH("status/",A44)-6))</f>
+        <f t="shared" si="0"/>
         <v>901840210618703874</v>
       </c>
       <c r="C44" t="s">
@@ -2998,7 +3094,7 @@
         <v>182</v>
       </c>
       <c r="B45" t="str">
-        <f>TRIM(RIGHT(A45,LEN(A45)-SEARCH("status/",A45)-6))</f>
+        <f t="shared" si="0"/>
         <v>901886653597454336</v>
       </c>
       <c r="C45" t="s">
@@ -3010,7 +3106,7 @@
         <v>365</v>
       </c>
       <c r="B46" t="str">
-        <f>TRIM(RIGHT(A46,LEN(A46)-SEARCH("status/",A46)-6))</f>
+        <f t="shared" si="0"/>
         <v>901901580018089984</v>
       </c>
       <c r="C46" t="s">
@@ -3022,7 +3118,7 @@
         <v>167</v>
       </c>
       <c r="B47" t="str">
-        <f>TRIM(RIGHT(A47,LEN(A47)-SEARCH("status/",A47)-6))</f>
+        <f t="shared" si="0"/>
         <v>901919168466956288</v>
       </c>
       <c r="C47" t="s">
@@ -3034,7 +3130,7 @@
         <v>363</v>
       </c>
       <c r="B48" t="str">
-        <f>TRIM(RIGHT(A48,LEN(A48)-SEARCH("status/",A48)-6))</f>
+        <f t="shared" si="0"/>
         <v>901865066177363972</v>
       </c>
       <c r="C48" t="s">
@@ -3046,7 +3142,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="str">
-        <f>TRIM(RIGHT(A49,LEN(A49)-SEARCH("status/",A49)-6))</f>
+        <f t="shared" si="0"/>
         <v>901978255132995586</v>
       </c>
       <c r="C49" t="s">
@@ -3058,7 +3154,7 @@
         <v>164</v>
       </c>
       <c r="B50" t="str">
-        <f>TRIM(RIGHT(A50,LEN(A50)-SEARCH("status/",A50)-6))</f>
+        <f t="shared" si="0"/>
         <v>901913453945921536</v>
       </c>
       <c r="C50" t="s">
@@ -3070,7 +3166,7 @@
         <v>66</v>
       </c>
       <c r="B51" t="str">
-        <f>TRIM(RIGHT(A51,LEN(A51)-SEARCH("status/",A51)-6))</f>
+        <f t="shared" si="0"/>
         <v>901977255810883584</v>
       </c>
       <c r="C51" t="s">
@@ -3082,7 +3178,7 @@
         <v>128</v>
       </c>
       <c r="B52" t="str">
-        <f>TRIM(RIGHT(A52,LEN(A52)-SEARCH("status/",A52)-6))</f>
+        <f t="shared" si="0"/>
         <v>901940051030007809</v>
       </c>
       <c r="C52" t="s">
@@ -3094,7 +3190,7 @@
         <v>327</v>
       </c>
       <c r="B53" t="str">
-        <f>TRIM(RIGHT(A53,LEN(A53)-SEARCH("status/",A53)-6))</f>
+        <f t="shared" si="0"/>
         <v>902930496610586627</v>
       </c>
       <c r="C53" t="s">
@@ -3106,7 +3202,7 @@
         <v>92</v>
       </c>
       <c r="B54" t="str">
-        <f>TRIM(RIGHT(A54,LEN(A54)-SEARCH("status/",A54)-6))</f>
+        <f t="shared" si="0"/>
         <v>901995399946403840</v>
       </c>
       <c r="C54" t="s">
@@ -3118,7 +3214,7 @@
         <v>263</v>
       </c>
       <c r="B55" t="str">
-        <f>TRIM(RIGHT(A55,LEN(A55)-SEARCH("status/",A55)-6))</f>
+        <f t="shared" si="0"/>
         <v>901945995084390400</v>
       </c>
       <c r="C55" t="s">
@@ -3130,7 +3226,7 @@
         <v>331</v>
       </c>
       <c r="B56" t="str">
-        <f>TRIM(RIGHT(A56,LEN(A56)-SEARCH("status/",A56)-6))</f>
+        <f t="shared" si="0"/>
         <v>902722418988470272</v>
       </c>
       <c r="C56" t="s">
@@ -3142,7 +3238,7 @@
         <v>169</v>
       </c>
       <c r="B57" t="str">
-        <f>TRIM(RIGHT(A57,LEN(A57)-SEARCH("status/",A57)-6))</f>
+        <f t="shared" si="0"/>
         <v>901880563052752896</v>
       </c>
       <c r="C57" t="s">
@@ -3154,7 +3250,7 @@
         <v>333</v>
       </c>
       <c r="B58" t="str">
-        <f>TRIM(RIGHT(A58,LEN(A58)-SEARCH("status/",A58)-6))</f>
+        <f t="shared" si="0"/>
         <v>902932494395346944</v>
       </c>
       <c r="C58" t="s">
@@ -3166,7 +3262,7 @@
         <v>144</v>
       </c>
       <c r="B59" t="str">
-        <f>TRIM(RIGHT(A59,LEN(A59)-SEARCH("status/",A59)-6))</f>
+        <f t="shared" si="0"/>
         <v>901894406202118148</v>
       </c>
       <c r="C59" t="s">
@@ -3178,7 +3274,7 @@
         <v>336</v>
       </c>
       <c r="B60" t="str">
-        <f>TRIM(RIGHT(A60,LEN(A60)-SEARCH("status/",A60)-6))</f>
+        <f t="shared" si="0"/>
         <v>902900738929684481</v>
       </c>
       <c r="C60" t="s">
@@ -3190,7 +3286,7 @@
         <v>337</v>
       </c>
       <c r="B61" t="str">
-        <f>TRIM(RIGHT(A61,LEN(A61)-SEARCH("status/",A61)-6))</f>
+        <f t="shared" si="0"/>
         <v>902904778916814848</v>
       </c>
       <c r="C61" t="s">
@@ -3202,7 +3298,7 @@
         <v>97</v>
       </c>
       <c r="B62" t="str">
-        <f>TRIM(RIGHT(A62,LEN(A62)-SEARCH("status/",A62)-6))</f>
+        <f t="shared" si="0"/>
         <v>901964999958175746</v>
       </c>
       <c r="C62" t="s">
@@ -3214,7 +3310,7 @@
         <v>156</v>
       </c>
       <c r="B63" t="str">
-        <f>TRIM(RIGHT(A63,LEN(A63)-SEARCH("status/",A63)-6))</f>
+        <f t="shared" si="0"/>
         <v>901953796062015488</v>
       </c>
       <c r="C63" t="s">
@@ -3226,7 +3322,7 @@
         <v>149</v>
       </c>
       <c r="B64" t="str">
-        <f>TRIM(RIGHT(A64,LEN(A64)-SEARCH("status/",A64)-6))</f>
+        <f t="shared" si="0"/>
         <v>901978810786226176</v>
       </c>
       <c r="C64" t="s">
@@ -3238,7 +3334,7 @@
         <v>346</v>
       </c>
       <c r="B65" t="str">
-        <f>TRIM(RIGHT(A65,LEN(A65)-SEARCH("status/",A65)-6))</f>
+        <f t="shared" si="0"/>
         <v>902803809109516288</v>
       </c>
       <c r="C65" t="s">
@@ -3250,7 +3346,7 @@
         <v>190</v>
       </c>
       <c r="B66" t="str">
-        <f>TRIM(RIGHT(A66,LEN(A66)-SEARCH("status/",A66)-6))</f>
+        <f t="shared" ref="B66:B129" si="1">TRIM(RIGHT(A66,LEN(A66)-SEARCH("status/",A66)-6))</f>
         <v>901986527269588996</v>
       </c>
       <c r="C66" t="s">
@@ -3262,7 +3358,7 @@
         <v>207</v>
       </c>
       <c r="B67" t="str">
-        <f>TRIM(RIGHT(A67,LEN(A67)-SEARCH("status/",A67)-6))</f>
+        <f t="shared" si="1"/>
         <v>901914298825498624</v>
       </c>
       <c r="C67" t="s">
@@ -3274,7 +3370,7 @@
         <v>206</v>
       </c>
       <c r="B68" t="str">
-        <f>TRIM(RIGHT(A68,LEN(A68)-SEARCH("status/",A68)-6))</f>
+        <f t="shared" si="1"/>
         <v>901918292318748676</v>
       </c>
       <c r="C68" t="s">
@@ -3286,7 +3382,7 @@
         <v>351</v>
       </c>
       <c r="B69" t="str">
-        <f>TRIM(RIGHT(A69,LEN(A69)-SEARCH("status/",A69)-6))</f>
+        <f t="shared" si="1"/>
         <v>902726482585321473</v>
       </c>
       <c r="C69" t="s">
@@ -3298,7 +3394,7 @@
         <v>214</v>
       </c>
       <c r="B70" t="str">
-        <f>TRIM(RIGHT(A70,LEN(A70)-SEARCH("status/",A70)-6))</f>
+        <f t="shared" si="1"/>
         <v>901930637858398208</v>
       </c>
       <c r="C70" t="s">
@@ -3310,7 +3406,7 @@
         <v>354</v>
       </c>
       <c r="B71" t="str">
-        <f>TRIM(RIGHT(A71,LEN(A71)-SEARCH("status/",A71)-6))</f>
+        <f t="shared" si="1"/>
         <v>902378440820760576</v>
       </c>
       <c r="C71" t="s">
@@ -3322,7 +3418,7 @@
         <v>355</v>
       </c>
       <c r="B72" t="str">
-        <f>TRIM(RIGHT(A72,LEN(A72)-SEARCH("status/",A72)-6))</f>
+        <f t="shared" si="1"/>
         <v>902343417463701504</v>
       </c>
       <c r="C72" t="s">
@@ -3334,7 +3430,7 @@
         <v>196</v>
       </c>
       <c r="B73" t="str">
-        <f>TRIM(RIGHT(A73,LEN(A73)-SEARCH("status/",A73)-6))</f>
+        <f t="shared" si="1"/>
         <v>901954605751382016</v>
       </c>
       <c r="C73" t="s">
@@ -3346,7 +3442,7 @@
         <v>364</v>
       </c>
       <c r="B74" t="str">
-        <f>TRIM(RIGHT(A74,LEN(A74)-SEARCH("status/",A74)-6))</f>
+        <f t="shared" si="1"/>
         <v>901880075783680001</v>
       </c>
       <c r="C74" t="s">
@@ -3358,7 +3454,7 @@
         <v>251</v>
       </c>
       <c r="B75" t="str">
-        <f>TRIM(RIGHT(A75,LEN(A75)-SEARCH("status/",A75)-6))</f>
+        <f t="shared" si="1"/>
         <v>901991537005010945</v>
       </c>
       <c r="C75" t="s">
@@ -3370,7 +3466,7 @@
         <v>133</v>
       </c>
       <c r="B76" t="str">
-        <f>TRIM(RIGHT(A76,LEN(A76)-SEARCH("status/",A76)-6))</f>
+        <f t="shared" si="1"/>
         <v>901973638991183872</v>
       </c>
       <c r="C76" t="s">
@@ -3382,7 +3478,7 @@
         <v>86</v>
       </c>
       <c r="B77" t="str">
-        <f>TRIM(RIGHT(A77,LEN(A77)-SEARCH("status/",A77)-6))</f>
+        <f t="shared" si="1"/>
         <v>901877307996024832</v>
       </c>
       <c r="C77" t="s">
@@ -3394,7 +3490,7 @@
         <v>30</v>
       </c>
       <c r="B78" t="str">
-        <f>TRIM(RIGHT(A78,LEN(A78)-SEARCH("status/",A78)-6))</f>
+        <f t="shared" si="1"/>
         <v>902362127528284160</v>
       </c>
       <c r="C78" t="s">
@@ -3406,7 +3502,7 @@
         <v>358</v>
       </c>
       <c r="B79" t="str">
-        <f>TRIM(RIGHT(A79,LEN(A79)-SEARCH("status/",A79)-6))</f>
+        <f t="shared" si="1"/>
         <v>902698563821555712</v>
       </c>
       <c r="C79" t="s">
@@ -3418,7 +3514,7 @@
         <v>339</v>
       </c>
       <c r="B80" t="str">
-        <f>TRIM(RIGHT(A80,LEN(A80)-SEARCH("status/",A80)-6))</f>
+        <f t="shared" si="1"/>
         <v>902934359354769412</v>
       </c>
       <c r="C80" t="s">
@@ -3430,7 +3526,7 @@
         <v>326</v>
       </c>
       <c r="B81" t="str">
-        <f>TRIM(RIGHT(A81,LEN(A81)-SEARCH("status/",A81)-6))</f>
+        <f t="shared" si="1"/>
         <v>902938318790287361</v>
       </c>
       <c r="C81" t="s">
@@ -3442,7 +3538,7 @@
         <v>243</v>
       </c>
       <c r="B82" t="str">
-        <f>TRIM(RIGHT(A82,LEN(A82)-SEARCH("status/",A82)-6))</f>
+        <f t="shared" si="1"/>
         <v>901901976316907520</v>
       </c>
       <c r="C82" t="s">
@@ -3454,7 +3550,7 @@
         <v>113</v>
       </c>
       <c r="B83" t="str">
-        <f>TRIM(RIGHT(A83,LEN(A83)-SEARCH("status/",A83)-6))</f>
+        <f t="shared" si="1"/>
         <v>901971122157125632</v>
       </c>
       <c r="C83" t="s">
@@ -3466,7 +3562,7 @@
         <v>163</v>
       </c>
       <c r="B84" t="str">
-        <f>TRIM(RIGHT(A84,LEN(A84)-SEARCH("status/",A84)-6))</f>
+        <f t="shared" si="1"/>
         <v>901899043579731968</v>
       </c>
       <c r="C84" t="s">
@@ -3478,7 +3574,7 @@
         <v>338</v>
       </c>
       <c r="B85" t="str">
-        <f>TRIM(RIGHT(A85,LEN(A85)-SEARCH("status/",A85)-6))</f>
+        <f t="shared" si="1"/>
         <v>902928321427755009</v>
       </c>
       <c r="C85" t="s">
@@ -3490,7 +3586,7 @@
         <v>340</v>
       </c>
       <c r="B86" t="str">
-        <f>TRIM(RIGHT(A86,LEN(A86)-SEARCH("status/",A86)-6))</f>
+        <f t="shared" si="1"/>
         <v>902936422470098946</v>
       </c>
       <c r="C86" t="s">
@@ -3502,7 +3598,7 @@
         <v>274</v>
       </c>
       <c r="B87" t="str">
-        <f>TRIM(RIGHT(A87,LEN(A87)-SEARCH("status/",A87)-6))</f>
+        <f t="shared" si="1"/>
         <v>902940488709353473</v>
       </c>
       <c r="C87" t="s">
@@ -3514,7 +3610,7 @@
         <v>145</v>
       </c>
       <c r="B88" t="str">
-        <f>TRIM(RIGHT(A88,LEN(A88)-SEARCH("status/",A88)-6))</f>
+        <f t="shared" si="1"/>
         <v>901892679725969409</v>
       </c>
       <c r="C88" t="s">
@@ -3526,7 +3622,7 @@
         <v>45</v>
       </c>
       <c r="B89" t="str">
-        <f>TRIM(RIGHT(A89,LEN(A89)-SEARCH("status/",A89)-6))</f>
+        <f t="shared" si="1"/>
         <v>901884580164239362</v>
       </c>
       <c r="C89" t="s">
@@ -3538,7 +3634,7 @@
         <v>45</v>
       </c>
       <c r="B90" t="str">
-        <f>TRIM(RIGHT(A90,LEN(A90)-SEARCH("status/",A90)-6))</f>
+        <f t="shared" si="1"/>
         <v>901884580164239362</v>
       </c>
       <c r="C90" t="s">
@@ -3550,7 +3646,7 @@
         <v>265</v>
       </c>
       <c r="B91" t="str">
-        <f>TRIM(RIGHT(A91,LEN(A91)-SEARCH("status/",A91)-6))</f>
+        <f t="shared" si="1"/>
         <v>901973716829167616</v>
       </c>
       <c r="C91" t="s">
@@ -3562,7 +3658,7 @@
         <v>317</v>
       </c>
       <c r="B92" t="str">
-        <f>TRIM(RIGHT(A92,LEN(A92)-SEARCH("status/",A92)-6))</f>
+        <f t="shared" si="1"/>
         <v>902432373870125056</v>
       </c>
       <c r="C92" t="s">
@@ -3574,7 +3670,7 @@
         <v>230</v>
       </c>
       <c r="B93" t="str">
-        <f>TRIM(RIGHT(A93,LEN(A93)-SEARCH("status/",A93)-6))</f>
+        <f t="shared" si="1"/>
         <v>901970998303404032</v>
       </c>
       <c r="C93" t="s">
@@ -3586,7 +3682,7 @@
         <v>124</v>
       </c>
       <c r="B94" t="str">
-        <f>TRIM(RIGHT(A94,LEN(A94)-SEARCH("status/",A94)-6))</f>
+        <f t="shared" si="1"/>
         <v>901973874593718272</v>
       </c>
       <c r="C94" t="s">
@@ -3598,7 +3694,7 @@
         <v>107</v>
       </c>
       <c r="B95" t="str">
-        <f>TRIM(RIGHT(A95,LEN(A95)-SEARCH("status/",A95)-6))</f>
+        <f t="shared" si="1"/>
         <v>901895361178030081</v>
       </c>
       <c r="C95" t="s">
@@ -3610,7 +3706,7 @@
         <v>52</v>
       </c>
       <c r="B96" t="str">
-        <f>TRIM(RIGHT(A96,LEN(A96)-SEARCH("status/",A96)-6))</f>
+        <f t="shared" si="1"/>
         <v>901995868391440384</v>
       </c>
       <c r="C96" t="s">
@@ -3622,7 +3718,7 @@
         <v>37</v>
       </c>
       <c r="B97" t="str">
-        <f>TRIM(RIGHT(A97,LEN(A97)-SEARCH("status/",A97)-6))</f>
+        <f t="shared" si="1"/>
         <v>902288821575876611</v>
       </c>
       <c r="C97" t="s">
@@ -3634,7 +3730,7 @@
         <v>211</v>
       </c>
       <c r="B98" t="str">
-        <f>TRIM(RIGHT(A98,LEN(A98)-SEARCH("status/",A98)-6))</f>
+        <f t="shared" si="1"/>
         <v>901934109601222657</v>
       </c>
       <c r="C98" t="s">
@@ -3646,7 +3742,7 @@
         <v>341</v>
       </c>
       <c r="B99" t="str">
-        <f>TRIM(RIGHT(A99,LEN(A99)-SEARCH("status/",A99)-6))</f>
+        <f t="shared" si="1"/>
         <v>902709384744198148</v>
       </c>
       <c r="C99" t="s">
@@ -3658,7 +3754,7 @@
         <v>350</v>
       </c>
       <c r="B100" t="str">
-        <f>TRIM(RIGHT(A100,LEN(A100)-SEARCH("status/",A100)-6))</f>
+        <f t="shared" si="1"/>
         <v>902930748834930688</v>
       </c>
       <c r="C100" t="s">
@@ -3670,7 +3766,7 @@
         <v>213</v>
       </c>
       <c r="B101" t="str">
-        <f>TRIM(RIGHT(A101,LEN(A101)-SEARCH("status/",A101)-6))</f>
+        <f t="shared" si="1"/>
         <v>901989110587514880</v>
       </c>
       <c r="C101" t="s">
@@ -3682,7 +3778,7 @@
         <v>85</v>
       </c>
       <c r="B102" t="str">
-        <f>TRIM(RIGHT(A102,LEN(A102)-SEARCH("status/",A102)-6))</f>
+        <f t="shared" si="1"/>
         <v>901915838554529792</v>
       </c>
       <c r="C102" t="s">
@@ -3694,7 +3790,7 @@
         <v>360</v>
       </c>
       <c r="B103" t="str">
-        <f>TRIM(RIGHT(A103,LEN(A103)-SEARCH("status/",A103)-6))</f>
+        <f t="shared" si="1"/>
         <v>902218986149969920</v>
       </c>
       <c r="C103" t="s">
@@ -3706,7 +3802,7 @@
         <v>88</v>
       </c>
       <c r="B104" t="str">
-        <f>TRIM(RIGHT(A104,LEN(A104)-SEARCH("status/",A104)-6))</f>
+        <f t="shared" si="1"/>
         <v>901976324415336448</v>
       </c>
       <c r="C104" t="s">
@@ -3718,7 +3814,7 @@
         <v>89</v>
       </c>
       <c r="B105" t="str">
-        <f>TRIM(RIGHT(A105,LEN(A105)-SEARCH("status/",A105)-6))</f>
+        <f t="shared" si="1"/>
         <v>901933377179267072</v>
       </c>
       <c r="C105" t="s">
@@ -3730,7 +3826,7 @@
         <v>139</v>
       </c>
       <c r="B106" t="str">
-        <f>TRIM(RIGHT(A106,LEN(A106)-SEARCH("status/",A106)-6))</f>
+        <f t="shared" si="1"/>
         <v>901957025776664577</v>
       </c>
       <c r="C106" t="s">
@@ -3742,7 +3838,7 @@
         <v>24</v>
       </c>
       <c r="B107" t="str">
-        <f>TRIM(RIGHT(A107,LEN(A107)-SEARCH("status/",A107)-6))</f>
+        <f t="shared" si="1"/>
         <v>902941440900083712</v>
       </c>
       <c r="C107" t="s">
@@ -3754,7 +3850,7 @@
         <v>224</v>
       </c>
       <c r="B108" t="str">
-        <f>TRIM(RIGHT(A108,LEN(A108)-SEARCH("status/",A108)-6))</f>
+        <f t="shared" si="1"/>
         <v>901990080956563456</v>
       </c>
       <c r="C108" t="s">
@@ -3766,7 +3862,7 @@
         <v>53</v>
       </c>
       <c r="B109" t="str">
-        <f>TRIM(RIGHT(A109,LEN(A109)-SEARCH("status/",A109)-6))</f>
+        <f t="shared" si="1"/>
         <v>901970584430682113</v>
       </c>
       <c r="C109" t="s">
@@ -3778,7 +3874,7 @@
         <v>9</v>
       </c>
       <c r="B110" t="str">
-        <f>TRIM(RIGHT(A110,LEN(A110)-SEARCH("status/",A110)-6))</f>
+        <f t="shared" si="1"/>
         <v>902085307171995653</v>
       </c>
       <c r="C110" t="s">
@@ -3790,7 +3886,7 @@
         <v>300</v>
       </c>
       <c r="B111" t="str">
-        <f>TRIM(RIGHT(A111,LEN(A111)-SEARCH("status/",A111)-6))</f>
+        <f t="shared" si="1"/>
         <v>903083254038843392</v>
       </c>
       <c r="C111" t="s">
@@ -3802,7 +3898,7 @@
         <v>25</v>
       </c>
       <c r="B112" t="str">
-        <f>TRIM(RIGHT(A112,LEN(A112)-SEARCH("status/",A112)-6))</f>
+        <f t="shared" si="1"/>
         <v>902684311941292033</v>
       </c>
       <c r="C112" t="s">
@@ -3814,7 +3910,7 @@
         <v>347</v>
       </c>
       <c r="B113" t="str">
-        <f>TRIM(RIGHT(A113,LEN(A113)-SEARCH("status/",A113)-6))</f>
+        <f t="shared" si="1"/>
         <v>902742873686368258</v>
       </c>
       <c r="C113" t="s">
@@ -3826,7 +3922,7 @@
         <v>212</v>
       </c>
       <c r="B114" t="str">
-        <f>TRIM(RIGHT(A114,LEN(A114)-SEARCH("status/",A114)-6))</f>
+        <f t="shared" si="1"/>
         <v>901948986759766017</v>
       </c>
       <c r="C114" t="s">
@@ -3838,7 +3934,7 @@
         <v>63</v>
       </c>
       <c r="B115" t="str">
-        <f>TRIM(RIGHT(A115,LEN(A115)-SEARCH("status/",A115)-6))</f>
+        <f t="shared" si="1"/>
         <v>901975330654695424</v>
       </c>
       <c r="C115" t="s">
@@ -3850,7 +3946,7 @@
         <v>151</v>
       </c>
       <c r="B116" t="str">
-        <f>TRIM(RIGHT(A116,LEN(A116)-SEARCH("status/",A116)-6))</f>
+        <f t="shared" si="1"/>
         <v>901976773713424384</v>
       </c>
       <c r="C116" t="s">
@@ -3862,7 +3958,7 @@
         <v>70</v>
       </c>
       <c r="B117" t="str">
-        <f>TRIM(RIGHT(A117,LEN(A117)-SEARCH("status/",A117)-6))</f>
+        <f t="shared" si="1"/>
         <v>901998789904527360</v>
       </c>
       <c r="C117" t="s">
@@ -3874,7 +3970,7 @@
         <v>246</v>
       </c>
       <c r="B118" t="str">
-        <f>TRIM(RIGHT(A118,LEN(A118)-SEARCH("status/",A118)-6))</f>
+        <f t="shared" si="1"/>
         <v>901911316805423105</v>
       </c>
       <c r="C118" t="s">
@@ -3886,7 +3982,7 @@
         <v>93</v>
       </c>
       <c r="B119" t="str">
-        <f>TRIM(RIGHT(A119,LEN(A119)-SEARCH("status/",A119)-6))</f>
+        <f t="shared" si="1"/>
         <v>901941893059284996</v>
       </c>
       <c r="C119" t="s">
@@ -3898,7 +3994,7 @@
         <v>33</v>
       </c>
       <c r="B120" t="str">
-        <f>TRIM(RIGHT(A120,LEN(A120)-SEARCH("status/",A120)-6))</f>
+        <f t="shared" si="1"/>
         <v>901969903611203584</v>
       </c>
       <c r="C120" t="s">
@@ -3910,7 +4006,7 @@
         <v>157</v>
       </c>
       <c r="B121" t="str">
-        <f>TRIM(RIGHT(A121,LEN(A121)-SEARCH("status/",A121)-6))</f>
+        <f t="shared" si="1"/>
         <v>901891022086705152</v>
       </c>
       <c r="C121" t="s">
@@ -3922,7 +4018,7 @@
         <v>253</v>
       </c>
       <c r="B122" t="str">
-        <f>TRIM(RIGHT(A122,LEN(A122)-SEARCH("status/",A122)-6))</f>
+        <f t="shared" si="1"/>
         <v>901883998099660800</v>
       </c>
       <c r="C122" t="s">
@@ -3934,7 +4030,7 @@
         <v>238</v>
       </c>
       <c r="B123" t="str">
-        <f>TRIM(RIGHT(A123,LEN(A123)-SEARCH("status/",A123)-6))</f>
+        <f t="shared" si="1"/>
         <v>901985333902020608</v>
       </c>
       <c r="C123" t="s">
@@ -3946,7 +4042,7 @@
         <v>234</v>
       </c>
       <c r="B124" t="str">
-        <f>TRIM(RIGHT(A124,LEN(A124)-SEARCH("status/",A124)-6))</f>
+        <f t="shared" si="1"/>
         <v>901956274711126016</v>
       </c>
       <c r="C124" t="s">
@@ -3958,7 +4054,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="str">
-        <f>TRIM(RIGHT(A125,LEN(A125)-SEARCH("status/",A125)-6))</f>
+        <f t="shared" si="1"/>
         <v>901973352751005696</v>
       </c>
       <c r="C125" t="s">
@@ -3970,7 +4066,7 @@
         <v>239</v>
       </c>
       <c r="B126" t="str">
-        <f>TRIM(RIGHT(A126,LEN(A126)-SEARCH("status/",A126)-6))</f>
+        <f t="shared" si="1"/>
         <v>902010175183241220</v>
       </c>
       <c r="C126" t="s">
@@ -3982,7 +4078,7 @@
         <v>228</v>
       </c>
       <c r="B127" t="str">
-        <f>TRIM(RIGHT(A127,LEN(A127)-SEARCH("status/",A127)-6))</f>
+        <f t="shared" si="1"/>
         <v>901922432583434242</v>
       </c>
       <c r="C127" t="s">
@@ -3994,7 +4090,7 @@
         <v>262</v>
       </c>
       <c r="B128" t="str">
-        <f>TRIM(RIGHT(A128,LEN(A128)-SEARCH("status/",A128)-6))</f>
+        <f t="shared" si="1"/>
         <v>901908852173676544</v>
       </c>
       <c r="C128" t="s">
@@ -4006,7 +4102,7 @@
         <v>174</v>
       </c>
       <c r="B129" t="str">
-        <f>TRIM(RIGHT(A129,LEN(A129)-SEARCH("status/",A129)-6))</f>
+        <f t="shared" si="1"/>
         <v>901932153721802752</v>
       </c>
       <c r="C129" t="s">
@@ -4018,7 +4114,7 @@
         <v>39</v>
       </c>
       <c r="B130" t="str">
-        <f>TRIM(RIGHT(A130,LEN(A130)-SEARCH("status/",A130)-6))</f>
+        <f t="shared" ref="B130:B193" si="2">TRIM(RIGHT(A130,LEN(A130)-SEARCH("status/",A130)-6))</f>
         <v>902210505540030465</v>
       </c>
       <c r="C130" t="s">
@@ -4030,7 +4126,7 @@
         <v>198</v>
       </c>
       <c r="B131" t="str">
-        <f>TRIM(RIGHT(A131,LEN(A131)-SEARCH("status/",A131)-6))</f>
+        <f t="shared" si="2"/>
         <v>901981588791099395</v>
       </c>
       <c r="C131" t="s">
@@ -4042,7 +4138,7 @@
         <v>152</v>
       </c>
       <c r="B132" t="str">
-        <f>TRIM(RIGHT(A132,LEN(A132)-SEARCH("status/",A132)-6))</f>
+        <f t="shared" si="2"/>
         <v>901853787970834437</v>
       </c>
       <c r="C132" t="s">
@@ -4054,7 +4150,7 @@
         <v>219</v>
       </c>
       <c r="B133" t="str">
-        <f>TRIM(RIGHT(A133,LEN(A133)-SEARCH("status/",A133)-6))</f>
+        <f t="shared" si="2"/>
         <v>901989752441896961</v>
       </c>
       <c r="C133" t="s">
@@ -4066,7 +4162,7 @@
         <v>349</v>
       </c>
       <c r="B134" t="str">
-        <f>TRIM(RIGHT(A134,LEN(A134)-SEARCH("status/",A134)-6))</f>
+        <f t="shared" si="2"/>
         <v>902680057302396928</v>
       </c>
       <c r="C134" t="s">
@@ -4078,7 +4174,7 @@
         <v>222</v>
       </c>
       <c r="B135" t="str">
-        <f>TRIM(RIGHT(A135,LEN(A135)-SEARCH("status/",A135)-6))</f>
+        <f t="shared" si="2"/>
         <v>901887164509806592</v>
       </c>
       <c r="C135" t="s">
@@ -4090,7 +4186,7 @@
         <v>27</v>
       </c>
       <c r="B136" t="str">
-        <f>TRIM(RIGHT(A136,LEN(A136)-SEARCH("status/",A136)-6))</f>
+        <f t="shared" si="2"/>
         <v>902409597243187200</v>
       </c>
       <c r="C136" t="s">
@@ -4102,7 +4198,7 @@
         <v>199</v>
       </c>
       <c r="B137" t="str">
-        <f>TRIM(RIGHT(A137,LEN(A137)-SEARCH("status/",A137)-6))</f>
+        <f t="shared" si="2"/>
         <v>901918305144922112</v>
       </c>
       <c r="C137" t="s">
@@ -4114,7 +4210,7 @@
         <v>226</v>
       </c>
       <c r="B138" t="str">
-        <f>TRIM(RIGHT(A138,LEN(A138)-SEARCH("status/",A138)-6))</f>
+        <f t="shared" si="2"/>
         <v>901920233664897024</v>
       </c>
       <c r="C138" t="s">
@@ -4126,7 +4222,7 @@
         <v>116</v>
       </c>
       <c r="B139" t="str">
-        <f>TRIM(RIGHT(A139,LEN(A139)-SEARCH("status/",A139)-6))</f>
+        <f t="shared" si="2"/>
         <v>901973552538165248</v>
       </c>
       <c r="C139" t="s">
@@ -4138,7 +4234,7 @@
         <v>188</v>
       </c>
       <c r="B140" t="str">
-        <f>TRIM(RIGHT(A140,LEN(A140)-SEARCH("status/",A140)-6))</f>
+        <f t="shared" si="2"/>
         <v>901979548522344448</v>
       </c>
       <c r="C140" t="s">
@@ -4150,7 +4246,7 @@
         <v>344</v>
       </c>
       <c r="B141" t="str">
-        <f>TRIM(RIGHT(A141,LEN(A141)-SEARCH("status/",A141)-6))</f>
+        <f t="shared" si="2"/>
         <v>902933159699939329</v>
       </c>
       <c r="C141" t="s">
@@ -4162,7 +4258,7 @@
         <v>132</v>
       </c>
       <c r="B142" t="str">
-        <f>TRIM(RIGHT(A142,LEN(A142)-SEARCH("status/",A142)-6))</f>
+        <f t="shared" si="2"/>
         <v>901915492390227972</v>
       </c>
       <c r="C142" t="s">
@@ -4174,7 +4270,7 @@
         <v>134</v>
       </c>
       <c r="B143" t="str">
-        <f>TRIM(RIGHT(A143,LEN(A143)-SEARCH("status/",A143)-6))</f>
+        <f t="shared" si="2"/>
         <v>901943469823987713</v>
       </c>
       <c r="C143" t="s">
@@ -4186,7 +4282,7 @@
         <v>252</v>
       </c>
       <c r="B144" t="str">
-        <f>TRIM(RIGHT(A144,LEN(A144)-SEARCH("status/",A144)-6))</f>
+        <f t="shared" si="2"/>
         <v>901890290398756864</v>
       </c>
       <c r="C144" t="s">
@@ -4198,7 +4294,7 @@
         <v>334</v>
       </c>
       <c r="B145" t="str">
-        <f>TRIM(RIGHT(A145,LEN(A145)-SEARCH("status/",A145)-6))</f>
+        <f t="shared" si="2"/>
         <v>903055296569987072</v>
       </c>
       <c r="C145" t="s">
@@ -4210,7 +4306,7 @@
         <v>126</v>
       </c>
       <c r="B146" t="str">
-        <f>TRIM(RIGHT(A146,LEN(A146)-SEARCH("status/",A146)-6))</f>
+        <f t="shared" si="2"/>
         <v>901932617108508672</v>
       </c>
       <c r="C146" t="s">
@@ -4222,7 +4318,7 @@
         <v>160</v>
       </c>
       <c r="B147" t="str">
-        <f>TRIM(RIGHT(A147,LEN(A147)-SEARCH("status/",A147)-6))</f>
+        <f t="shared" si="2"/>
         <v>901861213331746817</v>
       </c>
       <c r="C147" t="s">
@@ -4234,7 +4330,7 @@
         <v>8</v>
       </c>
       <c r="B148" t="str">
-        <f>TRIM(RIGHT(A148,LEN(A148)-SEARCH("status/",A148)-6))</f>
+        <f t="shared" si="2"/>
         <v>902260362292154368</v>
       </c>
       <c r="C148" t="s">
@@ -4246,7 +4342,7 @@
         <v>197</v>
       </c>
       <c r="B149" t="str">
-        <f>TRIM(RIGHT(A149,LEN(A149)-SEARCH("status/",A149)-6))</f>
+        <f t="shared" si="2"/>
         <v>901915562527391745</v>
       </c>
       <c r="C149" t="s">
@@ -4258,7 +4354,7 @@
         <v>22</v>
       </c>
       <c r="B150" t="str">
-        <f>TRIM(RIGHT(A150,LEN(A150)-SEARCH("status/",A150)-6))</f>
+        <f t="shared" si="2"/>
         <v>903095661595262976</v>
       </c>
       <c r="C150" t="s">
@@ -4270,7 +4366,7 @@
         <v>320</v>
       </c>
       <c r="B151" t="str">
-        <f>TRIM(RIGHT(A151,LEN(A151)-SEARCH("status/",A151)-6))</f>
+        <f t="shared" si="2"/>
         <v>902931081942274048</v>
       </c>
       <c r="C151" t="s">
@@ -4282,7 +4378,7 @@
         <v>111</v>
       </c>
       <c r="B152" t="str">
-        <f>TRIM(RIGHT(A152,LEN(A152)-SEARCH("status/",A152)-6))</f>
+        <f t="shared" si="2"/>
         <v>901971138561093632</v>
       </c>
       <c r="C152" t="s">
@@ -4294,7 +4390,7 @@
         <v>245</v>
       </c>
       <c r="B153" t="str">
-        <f>TRIM(RIGHT(A153,LEN(A153)-SEARCH("status/",A153)-6))</f>
+        <f t="shared" si="2"/>
         <v>901963817050968064</v>
       </c>
       <c r="C153" t="s">
@@ -4306,7 +4402,7 @@
         <v>240</v>
       </c>
       <c r="B154" t="str">
-        <f>TRIM(RIGHT(A154,LEN(A154)-SEARCH("status/",A154)-6))</f>
+        <f t="shared" si="2"/>
         <v>901974329872728064</v>
       </c>
       <c r="C154" t="s">
@@ -4318,7 +4414,7 @@
         <v>36</v>
       </c>
       <c r="B155" t="str">
-        <f>TRIM(RIGHT(A155,LEN(A155)-SEARCH("status/",A155)-6))</f>
+        <f t="shared" si="2"/>
         <v>902944402393485312</v>
       </c>
       <c r="C155" t="s">
@@ -4330,7 +4426,7 @@
         <v>184</v>
       </c>
       <c r="B156" t="str">
-        <f>TRIM(RIGHT(A156,LEN(A156)-SEARCH("status/",A156)-6))</f>
+        <f t="shared" si="2"/>
         <v>902000567727378432</v>
       </c>
       <c r="C156" t="s">
@@ -4342,7 +4438,7 @@
         <v>298</v>
       </c>
       <c r="B157" t="str">
-        <f>TRIM(RIGHT(A157,LEN(A157)-SEARCH("status/",A157)-6))</f>
+        <f t="shared" si="2"/>
         <v>902361785377972229</v>
       </c>
       <c r="C157" t="s">
@@ -4354,7 +4450,7 @@
         <v>299</v>
       </c>
       <c r="B158" t="str">
-        <f>TRIM(RIGHT(A158,LEN(A158)-SEARCH("status/",A158)-6))</f>
+        <f t="shared" si="2"/>
         <v>902709149288542208</v>
       </c>
       <c r="C158" t="s">
@@ -4366,7 +4462,7 @@
         <v>316</v>
       </c>
       <c r="B159" t="str">
-        <f>TRIM(RIGHT(A159,LEN(A159)-SEARCH("status/",A159)-6))</f>
+        <f t="shared" si="2"/>
         <v>902311072778117120</v>
       </c>
       <c r="C159" t="s">
@@ -4378,7 +4474,7 @@
         <v>171</v>
       </c>
       <c r="B160" t="str">
-        <f>TRIM(RIGHT(A160,LEN(A160)-SEARCH("status/",A160)-6))</f>
+        <f t="shared" si="2"/>
         <v>901981132287164416</v>
       </c>
       <c r="C160" t="s">
@@ -4390,7 +4486,7 @@
         <v>131</v>
       </c>
       <c r="B161" t="str">
-        <f>TRIM(RIGHT(A161,LEN(A161)-SEARCH("status/",A161)-6))</f>
+        <f t="shared" si="2"/>
         <v>901900955075182592</v>
       </c>
       <c r="C161" t="s">
@@ -4402,7 +4498,7 @@
         <v>335</v>
       </c>
       <c r="B162" t="str">
-        <f>TRIM(RIGHT(A162,LEN(A162)-SEARCH("status/",A162)-6))</f>
+        <f t="shared" si="2"/>
         <v>902821454290358272</v>
       </c>
       <c r="C162" t="s">
@@ -4414,7 +4510,7 @@
         <v>276</v>
       </c>
       <c r="B163" t="str">
-        <f>TRIM(RIGHT(A163,LEN(A163)-SEARCH("status/",A163)-6))</f>
+        <f t="shared" si="2"/>
         <v>902376387989864448</v>
       </c>
       <c r="C163" t="s">
@@ -4426,7 +4522,7 @@
         <v>161</v>
       </c>
       <c r="B164" t="str">
-        <f>TRIM(RIGHT(A164,LEN(A164)-SEARCH("status/",A164)-6))</f>
+        <f t="shared" si="2"/>
         <v>901885738752647173</v>
       </c>
       <c r="C164" t="s">
@@ -4438,7 +4534,7 @@
         <v>44</v>
       </c>
       <c r="B165" t="str">
-        <f>TRIM(RIGHT(A165,LEN(A165)-SEARCH("status/",A165)-6))</f>
+        <f t="shared" si="2"/>
         <v>901920177348120576</v>
       </c>
       <c r="C165" t="s">
@@ -4450,7 +4546,7 @@
         <v>90</v>
       </c>
       <c r="B166" t="str">
-        <f>TRIM(RIGHT(A166,LEN(A166)-SEARCH("status/",A166)-6))</f>
+        <f t="shared" si="2"/>
         <v>901888457001377792</v>
       </c>
       <c r="C166" t="s">
@@ -4462,7 +4558,7 @@
         <v>217</v>
       </c>
       <c r="B167" t="str">
-        <f>TRIM(RIGHT(A167,LEN(A167)-SEARCH("status/",A167)-6))</f>
+        <f t="shared" si="2"/>
         <v>901943496159895552</v>
       </c>
       <c r="C167" t="s">
@@ -4474,7 +4570,7 @@
         <v>227</v>
       </c>
       <c r="B168" t="str">
-        <f>TRIM(RIGHT(A168,LEN(A168)-SEARCH("status/",A168)-6))</f>
+        <f t="shared" si="2"/>
         <v>901930594657075202</v>
       </c>
       <c r="C168" t="s">
@@ -4486,7 +4582,7 @@
         <v>105</v>
       </c>
       <c r="B169" t="str">
-        <f>TRIM(RIGHT(A169,LEN(A169)-SEARCH("status/",A169)-6))</f>
+        <f t="shared" si="2"/>
         <v>901930162903805952</v>
       </c>
       <c r="C169" t="s">
@@ -4498,7 +4594,7 @@
         <v>114</v>
       </c>
       <c r="B170" t="str">
-        <f>TRIM(RIGHT(A170,LEN(A170)-SEARCH("status/",A170)-6))</f>
+        <f t="shared" si="2"/>
         <v>901882944448593921</v>
       </c>
       <c r="C170" t="s">
@@ -4510,7 +4606,7 @@
         <v>141</v>
       </c>
       <c r="B171" t="str">
-        <f>TRIM(RIGHT(A171,LEN(A171)-SEARCH("status/",A171)-6))</f>
+        <f t="shared" si="2"/>
         <v>901950011356966914</v>
       </c>
       <c r="C171" t="s">
@@ -4522,7 +4618,7 @@
         <v>11</v>
       </c>
       <c r="B172" t="str">
-        <f>TRIM(RIGHT(A172,LEN(A172)-SEARCH("status/",A172)-6))</f>
+        <f t="shared" si="2"/>
         <v>902346615867940864</v>
       </c>
       <c r="C172" t="s">
@@ -4534,7 +4630,7 @@
         <v>47</v>
       </c>
       <c r="B173" t="str">
-        <f>TRIM(RIGHT(A173,LEN(A173)-SEARCH("status/",A173)-6))</f>
+        <f t="shared" si="2"/>
         <v>901874011315068928</v>
       </c>
       <c r="C173" t="s">
@@ -4546,7 +4642,7 @@
         <v>155</v>
       </c>
       <c r="B174" t="str">
-        <f>TRIM(RIGHT(A174,LEN(A174)-SEARCH("status/",A174)-6))</f>
+        <f t="shared" si="2"/>
         <v>901990337714978816</v>
       </c>
       <c r="C174" t="s">
@@ -4558,7 +4654,7 @@
         <v>138</v>
       </c>
       <c r="B175" t="str">
-        <f>TRIM(RIGHT(A175,LEN(A175)-SEARCH("status/",A175)-6))</f>
+        <f t="shared" si="2"/>
         <v>901944072159588353</v>
       </c>
       <c r="C175" t="s">
@@ -4570,7 +4666,7 @@
         <v>136</v>
       </c>
       <c r="B176" t="str">
-        <f>TRIM(RIGHT(A176,LEN(A176)-SEARCH("status/",A176)-6))</f>
+        <f t="shared" si="2"/>
         <v>901943050938798086</v>
       </c>
       <c r="C176" t="s">
@@ -4582,7 +4678,7 @@
         <v>56</v>
       </c>
       <c r="B177" t="str">
-        <f>TRIM(RIGHT(A177,LEN(A177)-SEARCH("status/",A177)-6))</f>
+        <f t="shared" si="2"/>
         <v>901995236188192770</v>
       </c>
       <c r="C177" t="s">
@@ -4594,7 +4690,7 @@
         <v>83</v>
       </c>
       <c r="B178" t="str">
-        <f>TRIM(RIGHT(A178,LEN(A178)-SEARCH("status/",A178)-6))</f>
+        <f t="shared" si="2"/>
         <v>901978927291346944</v>
       </c>
       <c r="C178" t="s">
@@ -4606,7 +4702,7 @@
         <v>68</v>
       </c>
       <c r="B179" t="str">
-        <f>TRIM(RIGHT(A179,LEN(A179)-SEARCH("status/",A179)-6))</f>
+        <f t="shared" si="2"/>
         <v>901967002574741504</v>
       </c>
       <c r="C179" t="s">
@@ -4618,7 +4714,7 @@
         <v>215</v>
       </c>
       <c r="B180" t="str">
-        <f>TRIM(RIGHT(A180,LEN(A180)-SEARCH("status/",A180)-6))</f>
+        <f t="shared" si="2"/>
         <v>901939214371225600</v>
       </c>
       <c r="C180" t="s">
@@ -4630,7 +4726,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="str">
-        <f>TRIM(RIGHT(A181,LEN(A181)-SEARCH("status/",A181)-6))</f>
+        <f t="shared" si="2"/>
         <v>901938556024889345</v>
       </c>
       <c r="C181" t="s">
@@ -4642,7 +4738,7 @@
         <v>232</v>
       </c>
       <c r="B182" t="str">
-        <f>TRIM(RIGHT(A182,LEN(A182)-SEARCH("status/",A182)-6))</f>
+        <f t="shared" si="2"/>
         <v>901974740885266432</v>
       </c>
       <c r="C182" t="s">
@@ -4654,7 +4750,7 @@
         <v>345</v>
       </c>
       <c r="B183" t="str">
-        <f>TRIM(RIGHT(A183,LEN(A183)-SEARCH("status/",A183)-6))</f>
+        <f t="shared" si="2"/>
         <v>902384345515741185</v>
       </c>
       <c r="C183" t="s">
@@ -4666,7 +4762,7 @@
         <v>241</v>
       </c>
       <c r="B184" t="str">
-        <f>TRIM(RIGHT(A184,LEN(A184)-SEARCH("status/",A184)-6))</f>
+        <f t="shared" si="2"/>
         <v>901876055644020736</v>
       </c>
       <c r="C184" t="s">
@@ -4678,7 +4774,7 @@
         <v>72</v>
       </c>
       <c r="B185" t="str">
-        <f>TRIM(RIGHT(A185,LEN(A185)-SEARCH("status/",A185)-6))</f>
+        <f t="shared" si="2"/>
         <v>901955153074454528</v>
       </c>
       <c r="C185" t="s">
@@ -4690,7 +4786,7 @@
         <v>311</v>
       </c>
       <c r="B186" t="str">
-        <f>TRIM(RIGHT(A186,LEN(A186)-SEARCH("status/",A186)-6))</f>
+        <f t="shared" si="2"/>
         <v>902555442353762304</v>
       </c>
       <c r="C186" t="s">
@@ -4702,7 +4798,7 @@
         <v>29</v>
       </c>
       <c r="B187" t="str">
-        <f>TRIM(RIGHT(A187,LEN(A187)-SEARCH("status/",A187)-6))</f>
+        <f t="shared" si="2"/>
         <v>902354877153730560</v>
       </c>
       <c r="C187" t="s">
@@ -4714,7 +4810,7 @@
         <v>328</v>
       </c>
       <c r="B188" t="str">
-        <f>TRIM(RIGHT(A188,LEN(A188)-SEARCH("status/",A188)-6))</f>
+        <f t="shared" si="2"/>
         <v>902349773860216832</v>
       </c>
       <c r="C188" t="s">
@@ -4726,7 +4822,7 @@
         <v>186</v>
       </c>
       <c r="B189" t="str">
-        <f>TRIM(RIGHT(A189,LEN(A189)-SEARCH("status/",A189)-6))</f>
+        <f t="shared" si="2"/>
         <v>901941231084818432</v>
       </c>
       <c r="C189" t="s">
@@ -4738,7 +4834,7 @@
         <v>13</v>
       </c>
       <c r="B190" t="str">
-        <f>TRIM(RIGHT(A190,LEN(A190)-SEARCH("status/",A190)-6))</f>
+        <f t="shared" si="2"/>
         <v>902395999536238592</v>
       </c>
       <c r="C190" t="s">
@@ -4750,7 +4846,7 @@
         <v>201</v>
       </c>
       <c r="B191" t="str">
-        <f>TRIM(RIGHT(A191,LEN(A191)-SEARCH("status/",A191)-6))</f>
+        <f t="shared" si="2"/>
         <v>901972696044527616</v>
       </c>
       <c r="C191" t="s">
@@ -4762,7 +4858,7 @@
         <v>12</v>
       </c>
       <c r="B192" t="str">
-        <f>TRIM(RIGHT(A192,LEN(A192)-SEARCH("status/",A192)-6))</f>
+        <f t="shared" si="2"/>
         <v>902889869579620352</v>
       </c>
       <c r="C192" t="s">
@@ -4774,7 +4870,7 @@
         <v>108</v>
       </c>
       <c r="B193" t="str">
-        <f>TRIM(RIGHT(A193,LEN(A193)-SEARCH("status/",A193)-6))</f>
+        <f t="shared" si="2"/>
         <v>901985259255980034</v>
       </c>
       <c r="C193" t="s">
@@ -4786,7 +4882,7 @@
         <v>314</v>
       </c>
       <c r="B194" t="str">
-        <f>TRIM(RIGHT(A194,LEN(A194)-SEARCH("status/",A194)-6))</f>
+        <f t="shared" ref="B194:B257" si="3">TRIM(RIGHT(A194,LEN(A194)-SEARCH("status/",A194)-6))</f>
         <v>902384242809856001</v>
       </c>
       <c r="C194" t="s">
@@ -4798,7 +4894,7 @@
         <v>332</v>
       </c>
       <c r="B195" t="str">
-        <f>TRIM(RIGHT(A195,LEN(A195)-SEARCH("status/",A195)-6))</f>
+        <f t="shared" si="3"/>
         <v>902352483384688641,</v>
       </c>
       <c r="C195" t="s">
@@ -4810,7 +4906,7 @@
         <v>117</v>
       </c>
       <c r="B196" t="str">
-        <f>TRIM(RIGHT(A196,LEN(A196)-SEARCH("status/",A196)-6))</f>
+        <f t="shared" si="3"/>
         <v>901964091165696000</v>
       </c>
       <c r="C196" t="s">
@@ -4822,7 +4918,7 @@
         <v>259</v>
       </c>
       <c r="B197" t="str">
-        <f>TRIM(RIGHT(A197,LEN(A197)-SEARCH("status/",A197)-6))</f>
+        <f t="shared" si="3"/>
         <v>901846738650193922</v>
       </c>
       <c r="C197" t="s">
@@ -4834,7 +4930,7 @@
         <v>122</v>
       </c>
       <c r="B198" t="str">
-        <f>TRIM(RIGHT(A198,LEN(A198)-SEARCH("status/",A198)-6))</f>
+        <f t="shared" si="3"/>
         <v>901941891016613888</v>
       </c>
       <c r="C198" t="s">
@@ -4846,7 +4942,7 @@
         <v>165</v>
       </c>
       <c r="B199" t="str">
-        <f>TRIM(RIGHT(A199,LEN(A199)-SEARCH("status/",A199)-6))</f>
+        <f t="shared" si="3"/>
         <v>901946748960210944</v>
       </c>
       <c r="C199" t="s">
@@ -4858,7 +4954,7 @@
         <v>57</v>
       </c>
       <c r="B200" t="str">
-        <f>TRIM(RIGHT(A200,LEN(A200)-SEARCH("status/",A200)-6))</f>
+        <f t="shared" si="3"/>
         <v>901875471666647040</v>
       </c>
       <c r="C200" t="s">
@@ -4870,7 +4966,7 @@
         <v>94</v>
       </c>
       <c r="B201" t="str">
-        <f>TRIM(RIGHT(A201,LEN(A201)-SEARCH("status/",A201)-6))</f>
+        <f t="shared" si="3"/>
         <v>901925360132083713</v>
       </c>
       <c r="C201" t="s">
@@ -4882,7 +4978,7 @@
         <v>322</v>
       </c>
       <c r="B202" t="str">
-        <f>TRIM(RIGHT(A202,LEN(A202)-SEARCH("status/",A202)-6))</f>
+        <f t="shared" si="3"/>
         <v>903048882535485441</v>
       </c>
       <c r="C202" t="s">
@@ -4894,7 +4990,7 @@
         <v>359</v>
       </c>
       <c r="B203" t="str">
-        <f>TRIM(RIGHT(A203,LEN(A203)-SEARCH("status/",A203)-6))</f>
+        <f t="shared" si="3"/>
         <v>902936844572250113"</v>
       </c>
       <c r="C203" t="s">
@@ -4906,7 +5002,7 @@
         <v>183</v>
       </c>
       <c r="B204" t="str">
-        <f>TRIM(RIGHT(A204,LEN(A204)-SEARCH("status/",A204)-6))</f>
+        <f t="shared" si="3"/>
         <v>901978044931473408</v>
       </c>
       <c r="C204" t="s">
@@ -4918,7 +5014,7 @@
         <v>255</v>
       </c>
       <c r="B205" t="str">
-        <f>TRIM(RIGHT(A205,LEN(A205)-SEARCH("status/",A205)-6))</f>
+        <f t="shared" si="3"/>
         <v>901907084492582912</v>
       </c>
       <c r="C205" t="s">
@@ -4930,7 +5026,7 @@
         <v>5</v>
       </c>
       <c r="B206" t="str">
-        <f>TRIM(RIGHT(A206,LEN(A206)-SEARCH("status/",A206)-6))</f>
+        <f t="shared" si="3"/>
         <v>902222955589103617</v>
       </c>
       <c r="C206" t="s">
@@ -4942,7 +5038,7 @@
         <v>26</v>
       </c>
       <c r="B207" t="str">
-        <f>TRIM(RIGHT(A207,LEN(A207)-SEARCH("status/",A207)-6))</f>
+        <f t="shared" si="3"/>
         <v>902917747021156352</v>
       </c>
       <c r="C207" t="s">
@@ -4954,7 +5050,7 @@
         <v>95</v>
       </c>
       <c r="B208" t="str">
-        <f>TRIM(RIGHT(A208,LEN(A208)-SEARCH("status/",A208)-6))</f>
+        <f t="shared" si="3"/>
         <v>901987410233479168</v>
       </c>
       <c r="C208" t="s">
@@ -4966,7 +5062,7 @@
         <v>91</v>
       </c>
       <c r="B209" t="str">
-        <f>TRIM(RIGHT(A209,LEN(A209)-SEARCH("status/",A209)-6))</f>
+        <f t="shared" si="3"/>
         <v>902003599269605376</v>
       </c>
       <c r="C209" t="s">
@@ -4978,7 +5074,7 @@
         <v>362</v>
       </c>
       <c r="B210" t="str">
-        <f>TRIM(RIGHT(A210,LEN(A210)-SEARCH("status/",A210)-6))</f>
+        <f t="shared" si="3"/>
         <v>903082117004836864</v>
       </c>
       <c r="C210" t="s">
@@ -4990,7 +5086,7 @@
         <v>178</v>
       </c>
       <c r="B211" t="str">
-        <f>TRIM(RIGHT(A211,LEN(A211)-SEARCH("status/",A211)-6))</f>
+        <f t="shared" si="3"/>
         <v>901954669492260864</v>
       </c>
       <c r="C211" t="s">
@@ -5002,7 +5098,7 @@
         <v>281</v>
       </c>
       <c r="B212" t="str">
-        <f>TRIM(RIGHT(A212,LEN(A212)-SEARCH("status/",A212)-6))</f>
+        <f t="shared" si="3"/>
         <v>902666471003885568</v>
       </c>
       <c r="C212" t="s">
@@ -5014,7 +5110,7 @@
         <v>55</v>
       </c>
       <c r="B213" t="str">
-        <f>TRIM(RIGHT(A213,LEN(A213)-SEARCH("status/",A213)-6))</f>
+        <f t="shared" si="3"/>
         <v>901951250295607296</v>
       </c>
       <c r="C213" t="s">
@@ -5026,7 +5122,7 @@
         <v>48</v>
       </c>
       <c r="B214" t="str">
-        <f>TRIM(RIGHT(A214,LEN(A214)-SEARCH("status/",A214)-6))</f>
+        <f t="shared" si="3"/>
         <v>901957716943536130</v>
       </c>
       <c r="C214" t="s">
@@ -5038,7 +5134,7 @@
         <v>78</v>
       </c>
       <c r="B215" t="str">
-        <f>TRIM(RIGHT(A215,LEN(A215)-SEARCH("status/",A215)-6))</f>
+        <f t="shared" si="3"/>
         <v>901956115029688322</v>
       </c>
       <c r="C215" t="s">
@@ -5050,7 +5146,7 @@
         <v>64</v>
       </c>
       <c r="B216" t="str">
-        <f>TRIM(RIGHT(A216,LEN(A216)-SEARCH("status/",A216)-6))</f>
+        <f t="shared" si="3"/>
         <v>901977709735280641</v>
       </c>
       <c r="C216" t="s">
@@ -5062,7 +5158,7 @@
         <v>195</v>
       </c>
       <c r="B217" t="str">
-        <f>TRIM(RIGHT(A217,LEN(A217)-SEARCH("status/",A217)-6))</f>
+        <f t="shared" si="3"/>
         <v>901942573740302336</v>
       </c>
       <c r="C217" t="s">
@@ -5074,7 +5170,7 @@
         <v>310</v>
       </c>
       <c r="B218" t="str">
-        <f>TRIM(RIGHT(A218,LEN(A218)-SEARCH("status/",A218)-6))</f>
+        <f t="shared" si="3"/>
         <v>902933807296372736</v>
       </c>
       <c r="C218" t="s">
@@ -5086,7 +5182,7 @@
         <v>295</v>
       </c>
       <c r="B219" t="str">
-        <f>TRIM(RIGHT(A219,LEN(A219)-SEARCH("status/",A219)-6))</f>
+        <f t="shared" si="3"/>
         <v>902711215813795841</v>
       </c>
       <c r="C219" t="s">
@@ -5098,7 +5194,7 @@
         <v>231</v>
       </c>
       <c r="B220" t="str">
-        <f>TRIM(RIGHT(A220,LEN(A220)-SEARCH("status/",A220)-6))</f>
+        <f t="shared" si="3"/>
         <v>901951469880057856</v>
       </c>
       <c r="C220" t="s">
@@ -5110,7 +5206,7 @@
         <v>121</v>
       </c>
       <c r="B221" t="str">
-        <f>TRIM(RIGHT(A221,LEN(A221)-SEARCH("status/",A221)-6))</f>
+        <f t="shared" si="3"/>
         <v>901973365031829504</v>
       </c>
       <c r="C221" t="s">
@@ -5122,7 +5218,7 @@
         <v>260</v>
       </c>
       <c r="B222" t="str">
-        <f>TRIM(RIGHT(A222,LEN(A222)-SEARCH("status/",A222)-6))</f>
+        <f t="shared" si="3"/>
         <v>901957528577331201</v>
       </c>
       <c r="C222" t="s">
@@ -5134,7 +5230,7 @@
         <v>168</v>
       </c>
       <c r="B223" t="str">
-        <f>TRIM(RIGHT(A223,LEN(A223)-SEARCH("status/",A223)-6))</f>
+        <f t="shared" si="3"/>
         <v>901913666630627328</v>
       </c>
       <c r="C223" t="s">
@@ -5146,7 +5242,7 @@
         <v>100</v>
       </c>
       <c r="B224" t="str">
-        <f>TRIM(RIGHT(A224,LEN(A224)-SEARCH("status/",A224)-6))</f>
+        <f t="shared" si="3"/>
         <v>901864984724033538</v>
       </c>
       <c r="C224" t="s">
@@ -5158,7 +5254,7 @@
         <v>17</v>
       </c>
       <c r="B225" t="str">
-        <f>TRIM(RIGHT(A225,LEN(A225)-SEARCH("status/",A225)-6))</f>
+        <f t="shared" si="3"/>
         <v>902915585662607360</v>
       </c>
       <c r="C225" t="s">
@@ -5170,7 +5266,7 @@
         <v>98</v>
       </c>
       <c r="B226" t="str">
-        <f>TRIM(RIGHT(A226,LEN(A226)-SEARCH("status/",A226)-6))</f>
+        <f t="shared" si="3"/>
         <v>901954153190232065</v>
       </c>
       <c r="C226" t="s">
@@ -5182,7 +5278,7 @@
         <v>32</v>
       </c>
       <c r="B227" t="str">
-        <f>TRIM(RIGHT(A227,LEN(A227)-SEARCH("status/",A227)-6))</f>
+        <f t="shared" si="3"/>
         <v>902915332469383170</v>
       </c>
       <c r="C227" t="s">
@@ -5194,7 +5290,7 @@
         <v>147</v>
       </c>
       <c r="B228" t="str">
-        <f>TRIM(RIGHT(A228,LEN(A228)-SEARCH("status/",A228)-6))</f>
+        <f t="shared" si="3"/>
         <v>901961577959698432</v>
       </c>
       <c r="C228" t="s">
@@ -5206,7 +5302,7 @@
         <v>150</v>
       </c>
       <c r="B229" t="str">
-        <f>TRIM(RIGHT(A229,LEN(A229)-SEARCH("status/",A229)-6))</f>
+        <f t="shared" si="3"/>
         <v>901951032116305922</v>
       </c>
       <c r="C229" t="s">
@@ -5218,7 +5314,7 @@
         <v>40</v>
       </c>
       <c r="B230" t="str">
-        <f>TRIM(RIGHT(A230,LEN(A230)-SEARCH("status/",A230)-6))</f>
+        <f t="shared" si="3"/>
         <v>902352959715061760</v>
       </c>
       <c r="C230" t="s">
@@ -5230,7 +5326,7 @@
         <v>343</v>
       </c>
       <c r="B231" t="str">
-        <f>TRIM(RIGHT(A231,LEN(A231)-SEARCH("status/",A231)-6))</f>
+        <f t="shared" si="3"/>
         <v>902350108708270081</v>
       </c>
       <c r="C231" t="s">
@@ -5242,7 +5338,7 @@
         <v>356</v>
       </c>
       <c r="B232" t="str">
-        <f>TRIM(RIGHT(A232,LEN(A232)-SEARCH("status/",A232)-6))</f>
+        <f t="shared" si="3"/>
         <v>902730270285205509</v>
       </c>
       <c r="C232" t="s">
@@ -5254,7 +5350,7 @@
         <v>305</v>
       </c>
       <c r="B233" t="str">
-        <f>TRIM(RIGHT(A233,LEN(A233)-SEARCH("status/",A233)-6))</f>
+        <f t="shared" si="3"/>
         <v>902804293484298240</v>
       </c>
       <c r="C233" t="s">
@@ -5266,7 +5362,7 @@
         <v>353</v>
       </c>
       <c r="B234" t="str">
-        <f>TRIM(RIGHT(A234,LEN(A234)-SEARCH("status/",A234)-6))</f>
+        <f t="shared" si="3"/>
         <v>902339709808070656</v>
       </c>
       <c r="C234" t="s">
@@ -5278,7 +5374,7 @@
         <v>193</v>
       </c>
       <c r="B235" t="str">
-        <f>TRIM(RIGHT(A235,LEN(A235)-SEARCH("status/",A235)-6))</f>
+        <f t="shared" si="3"/>
         <v>901952426609041408</v>
       </c>
       <c r="C235" t="s">
@@ -5290,7 +5386,7 @@
         <v>275</v>
       </c>
       <c r="B236" t="str">
-        <f>TRIM(RIGHT(A236,LEN(A236)-SEARCH("status/",A236)-6))</f>
+        <f t="shared" si="3"/>
         <v>902713642843611136</v>
       </c>
       <c r="C236" t="s">
@@ -5302,7 +5398,7 @@
         <v>191</v>
       </c>
       <c r="B237" t="str">
-        <f>TRIM(RIGHT(A237,LEN(A237)-SEARCH("status/",A237)-6))</f>
+        <f t="shared" si="3"/>
         <v>901958370642493440</v>
       </c>
       <c r="C237" t="s">
@@ -5314,7 +5410,7 @@
         <v>192</v>
       </c>
       <c r="B238" t="str">
-        <f>TRIM(RIGHT(A238,LEN(A238)-SEARCH("status/",A238)-6))</f>
+        <f t="shared" si="3"/>
         <v>901975047748845569</v>
       </c>
       <c r="C238" t="s">
@@ -5326,7 +5422,7 @@
         <v>342</v>
       </c>
       <c r="B239" t="str">
-        <f>TRIM(RIGHT(A239,LEN(A239)-SEARCH("status/",A239)-6))</f>
+        <f t="shared" si="3"/>
         <v>902673031172116482</v>
       </c>
       <c r="C239" t="s">
@@ -5338,7 +5434,7 @@
         <v>142</v>
       </c>
       <c r="B240" t="str">
-        <f>TRIM(RIGHT(A240,LEN(A240)-SEARCH("status/",A240)-6))</f>
+        <f t="shared" si="3"/>
         <v>901903794270810114</v>
       </c>
       <c r="C240" t="s">
@@ -5350,7 +5446,7 @@
         <v>38</v>
       </c>
       <c r="B241" t="str">
-        <f>TRIM(RIGHT(A241,LEN(A241)-SEARCH("status/",A241)-6))</f>
+        <f t="shared" si="3"/>
         <v>901944407884263424</v>
       </c>
       <c r="C241" t="s">
@@ -5362,7 +5458,7 @@
         <v>233</v>
       </c>
       <c r="B242" t="str">
-        <f>TRIM(RIGHT(A242,LEN(A242)-SEARCH("status/",A242)-6))</f>
+        <f t="shared" si="3"/>
         <v>901952074044329984</v>
       </c>
       <c r="C242" t="s">
@@ -5374,7 +5470,7 @@
         <v>80</v>
       </c>
       <c r="B243" t="str">
-        <f>TRIM(RIGHT(A243,LEN(A243)-SEARCH("status/",A243)-6))</f>
+        <f t="shared" si="3"/>
         <v>901988645447589888</v>
       </c>
       <c r="C243" t="s">
@@ -5386,7 +5482,7 @@
         <v>352</v>
       </c>
       <c r="B244" t="str">
-        <f>TRIM(RIGHT(A244,LEN(A244)-SEARCH("status/",A244)-6))</f>
+        <f t="shared" si="3"/>
         <v>902353883833536513</v>
       </c>
       <c r="C244" t="s">
@@ -5398,7 +5494,7 @@
         <v>71</v>
       </c>
       <c r="B245" t="str">
-        <f>TRIM(RIGHT(A245,LEN(A245)-SEARCH("status/",A245)-6))</f>
+        <f t="shared" si="3"/>
         <v>901952670033903616</v>
       </c>
       <c r="C245" t="s">
@@ -5410,7 +5506,7 @@
         <v>123</v>
       </c>
       <c r="B246" t="str">
-        <f>TRIM(RIGHT(A246,LEN(A246)-SEARCH("status/",A246)-6))</f>
+        <f t="shared" si="3"/>
         <v>901938901752971267</v>
       </c>
       <c r="C246" t="s">
@@ -5422,7 +5518,7 @@
         <v>120</v>
       </c>
       <c r="B247" t="str">
-        <f>TRIM(RIGHT(A247,LEN(A247)-SEARCH("status/",A247)-6))</f>
+        <f t="shared" si="3"/>
         <v>901876687180312577</v>
       </c>
       <c r="C247" t="s">
@@ -5434,7 +5530,7 @@
         <v>221</v>
       </c>
       <c r="B248" t="str">
-        <f>TRIM(RIGHT(A248,LEN(A248)-SEARCH("status/",A248)-6))</f>
+        <f t="shared" si="3"/>
         <v>901967918648487936</v>
       </c>
       <c r="C248" t="s">
@@ -5446,7 +5542,7 @@
         <v>59</v>
       </c>
       <c r="B249" t="str">
-        <f>TRIM(RIGHT(A249,LEN(A249)-SEARCH("status/",A249)-6))</f>
+        <f t="shared" si="3"/>
         <v>901943926218772485</v>
       </c>
       <c r="C249" t="s">
@@ -5458,7 +5554,7 @@
         <v>175</v>
       </c>
       <c r="B250" t="str">
-        <f>TRIM(RIGHT(A250,LEN(A250)-SEARCH("status/",A250)-6))</f>
+        <f t="shared" si="3"/>
         <v>901977273515073540</v>
       </c>
       <c r="C250" t="s">
@@ -5470,7 +5566,7 @@
         <v>200</v>
       </c>
       <c r="B251" t="str">
-        <f>TRIM(RIGHT(A251,LEN(A251)-SEARCH("status/",A251)-6))</f>
+        <f t="shared" si="3"/>
         <v>901967911451013120</v>
       </c>
       <c r="C251" t="s">
@@ -5482,7 +5578,7 @@
         <v>81</v>
       </c>
       <c r="B252" t="str">
-        <f>TRIM(RIGHT(A252,LEN(A252)-SEARCH("status/",A252)-6))</f>
+        <f t="shared" si="3"/>
         <v>902001069437452289</v>
       </c>
       <c r="C252" t="s">
@@ -5494,7 +5590,7 @@
         <v>3</v>
       </c>
       <c r="B253" t="str">
-        <f>TRIM(RIGHT(A253,LEN(A253)-SEARCH("status/",A253)-6))</f>
+        <f t="shared" si="3"/>
         <v>902256639578923009</v>
       </c>
       <c r="C253" t="s">
@@ -5506,7 +5602,7 @@
         <v>7</v>
       </c>
       <c r="B254" t="str">
-        <f>TRIM(RIGHT(A254,LEN(A254)-SEARCH("status/",A254)-6))</f>
+        <f t="shared" si="3"/>
         <v>902572494137253889</v>
       </c>
       <c r="C254" t="s">
@@ -5518,7 +5614,7 @@
         <v>250</v>
       </c>
       <c r="B255" t="str">
-        <f>TRIM(RIGHT(A255,LEN(A255)-SEARCH("status/",A255)-6))</f>
+        <f t="shared" si="3"/>
         <v>901972108472934400</v>
       </c>
       <c r="C255" t="s">
@@ -5530,7 +5626,7 @@
         <v>247</v>
       </c>
       <c r="B256" t="str">
-        <f>TRIM(RIGHT(A256,LEN(A256)-SEARCH("status/",A256)-6))</f>
+        <f t="shared" si="3"/>
         <v>901951941965737988</v>
       </c>
       <c r="C256" t="s">
@@ -5542,7 +5638,7 @@
         <v>301</v>
       </c>
       <c r="B257" t="str">
-        <f>TRIM(RIGHT(A257,LEN(A257)-SEARCH("status/",A257)-6))</f>
+        <f t="shared" si="3"/>
         <v>902940843350384641</v>
       </c>
       <c r="C257" t="s">
@@ -5554,7 +5650,7 @@
         <v>235</v>
       </c>
       <c r="B258" t="str">
-        <f>TRIM(RIGHT(A258,LEN(A258)-SEARCH("status/",A258)-6))</f>
+        <f t="shared" ref="B258:B321" si="4">TRIM(RIGHT(A258,LEN(A258)-SEARCH("status/",A258)-6))</f>
         <v>901967855968772096</v>
       </c>
       <c r="C258" t="s">
@@ -5566,7 +5662,7 @@
         <v>237</v>
       </c>
       <c r="B259" t="str">
-        <f>TRIM(RIGHT(A259,LEN(A259)-SEARCH("status/",A259)-6))</f>
+        <f t="shared" si="4"/>
         <v>901974909710196737</v>
       </c>
       <c r="C259" t="s">
@@ -5578,7 +5674,7 @@
         <v>185</v>
       </c>
       <c r="B260" t="str">
-        <f>TRIM(RIGHT(A260,LEN(A260)-SEARCH("status/",A260)-6))</f>
+        <f t="shared" si="4"/>
         <v>901995068294356994</v>
       </c>
       <c r="C260" t="s">
@@ -5590,7 +5686,7 @@
         <v>286</v>
       </c>
       <c r="B261" t="str">
-        <f>TRIM(RIGHT(A261,LEN(A261)-SEARCH("status/",A261)-6))</f>
+        <f t="shared" si="4"/>
         <v>903295552804331521</v>
       </c>
       <c r="C261" t="s">
@@ -5602,7 +5698,7 @@
         <v>208</v>
       </c>
       <c r="B262" t="str">
-        <f>TRIM(RIGHT(A262,LEN(A262)-SEARCH("status/",A262)-6))</f>
+        <f t="shared" si="4"/>
         <v>901949544723865601</v>
       </c>
       <c r="C262" t="s">
@@ -5614,7 +5710,7 @@
         <v>61</v>
       </c>
       <c r="B263" t="str">
-        <f>TRIM(RIGHT(A263,LEN(A263)-SEARCH("status/",A263)-6))</f>
+        <f t="shared" si="4"/>
         <v>901991261426593794</v>
       </c>
       <c r="C263" t="s">
@@ -5626,7 +5722,7 @@
         <v>46</v>
       </c>
       <c r="B264" t="str">
-        <f>TRIM(RIGHT(A264,LEN(A264)-SEARCH("status/",A264)-6))</f>
+        <f t="shared" si="4"/>
         <v>901952274708168705</v>
       </c>
       <c r="C264" t="s">
@@ -5638,7 +5734,7 @@
         <v>135</v>
       </c>
       <c r="B265" t="str">
-        <f>TRIM(RIGHT(A265,LEN(A265)-SEARCH("status/",A265)-6))</f>
+        <f t="shared" si="4"/>
         <v>901934036167393281</v>
       </c>
       <c r="C265" t="s">
@@ -5650,7 +5746,7 @@
         <v>101</v>
       </c>
       <c r="B266" t="str">
-        <f>TRIM(RIGHT(A266,LEN(A266)-SEARCH("status/",A266)-6))</f>
+        <f t="shared" si="4"/>
         <v>901947887533379585</v>
       </c>
       <c r="C266" t="s">
@@ -5662,7 +5758,7 @@
         <v>42</v>
       </c>
       <c r="B267" t="str">
-        <f>TRIM(RIGHT(A267,LEN(A267)-SEARCH("status/",A267)-6))</f>
+        <f t="shared" si="4"/>
         <v>902705428144025600</v>
       </c>
       <c r="C267" t="s">
@@ -5674,7 +5770,7 @@
         <v>249</v>
       </c>
       <c r="B268" t="str">
-        <f>TRIM(RIGHT(A268,LEN(A268)-SEARCH("status/",A268)-6))</f>
+        <f t="shared" si="4"/>
         <v>901973977773383680</v>
       </c>
       <c r="C268" t="s">
@@ -5686,7 +5782,7 @@
         <v>236</v>
       </c>
       <c r="B269" t="str">
-        <f>TRIM(RIGHT(A269,LEN(A269)-SEARCH("status/",A269)-6))</f>
+        <f t="shared" si="4"/>
         <v>901972301671010304</v>
       </c>
       <c r="C269" t="s">
@@ -5698,7 +5794,7 @@
         <v>291</v>
       </c>
       <c r="B270" t="str">
-        <f>TRIM(RIGHT(A270,LEN(A270)-SEARCH("status/",A270)-6))</f>
+        <f t="shared" si="4"/>
         <v>903047123159089153</v>
       </c>
       <c r="C270" t="s">
@@ -5710,7 +5806,7 @@
         <v>166</v>
       </c>
       <c r="B271" t="str">
-        <f>TRIM(RIGHT(A271,LEN(A271)-SEARCH("status/",A271)-6))</f>
+        <f t="shared" si="4"/>
         <v>901851408248516608</v>
       </c>
       <c r="C271" t="s">
@@ -5722,7 +5818,7 @@
         <v>256</v>
       </c>
       <c r="B272" t="str">
-        <f>TRIM(RIGHT(A272,LEN(A272)-SEARCH("status/",A272)-6))</f>
+        <f t="shared" si="4"/>
         <v>901948142878384128</v>
       </c>
       <c r="C272" t="s">
@@ -5734,7 +5830,7 @@
         <v>159</v>
       </c>
       <c r="B273" t="str">
-        <f>TRIM(RIGHT(A273,LEN(A273)-SEARCH("status/",A273)-6))</f>
+        <f t="shared" si="4"/>
         <v>901917460609290242</v>
       </c>
       <c r="C273" t="s">
@@ -5746,7 +5842,7 @@
         <v>154</v>
       </c>
       <c r="B274" t="str">
-        <f>TRIM(RIGHT(A274,LEN(A274)-SEARCH("status/",A274)-6))</f>
+        <f t="shared" si="4"/>
         <v>901953451009212416</v>
       </c>
       <c r="C274" t="s">
@@ -5758,7 +5854,7 @@
         <v>257</v>
       </c>
       <c r="B275" t="str">
-        <f>TRIM(RIGHT(A275,LEN(A275)-SEARCH("status/",A275)-6))</f>
+        <f t="shared" si="4"/>
         <v>901888930072670208</v>
       </c>
       <c r="C275" t="s">
@@ -5770,7 +5866,7 @@
         <v>294</v>
       </c>
       <c r="B276" t="str">
-        <f>TRIM(RIGHT(A276,LEN(A276)-SEARCH("status/",A276)-6))</f>
+        <f t="shared" si="4"/>
         <v>902358558162944001</v>
       </c>
       <c r="C276" t="s">
@@ -5782,7 +5878,7 @@
         <v>172</v>
       </c>
       <c r="B277" t="str">
-        <f>TRIM(RIGHT(A277,LEN(A277)-SEARCH("status/",A277)-6))</f>
+        <f t="shared" si="4"/>
         <v>901938307378098178</v>
       </c>
       <c r="C277" t="s">
@@ -5794,7 +5890,7 @@
         <v>173</v>
       </c>
       <c r="B278" t="str">
-        <f>TRIM(RIGHT(A278,LEN(A278)-SEARCH("status/",A278)-6))</f>
+        <f t="shared" si="4"/>
         <v>901940806831013890</v>
       </c>
       <c r="C278" t="s">
@@ -5806,7 +5902,7 @@
         <v>119</v>
       </c>
       <c r="B279" t="str">
-        <f>TRIM(RIGHT(A279,LEN(A279)-SEARCH("status/",A279)-6))</f>
+        <f t="shared" si="4"/>
         <v>901932504852156418</v>
       </c>
       <c r="C279" t="s">
@@ -5818,7 +5914,7 @@
         <v>302</v>
       </c>
       <c r="B280" t="str">
-        <f>TRIM(RIGHT(A280,LEN(A280)-SEARCH("status/",A280)-6))</f>
+        <f t="shared" si="4"/>
         <v>902698580787380224</v>
       </c>
       <c r="C280" t="s">
@@ -5830,7 +5926,7 @@
         <v>148</v>
       </c>
       <c r="B281" t="str">
-        <f>TRIM(RIGHT(A281,LEN(A281)-SEARCH("status/",A281)-6))</f>
+        <f t="shared" si="4"/>
         <v>901967260151144449</v>
       </c>
       <c r="C281" t="s">
@@ -5842,7 +5938,7 @@
         <v>357</v>
       </c>
       <c r="B282" t="str">
-        <f>TRIM(RIGHT(A282,LEN(A282)-SEARCH("status/",A282)-6))</f>
+        <f t="shared" si="4"/>
         <v>902691919238578176</v>
       </c>
       <c r="C282" t="s">
@@ -5854,7 +5950,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="str">
-        <f>TRIM(RIGHT(A283,LEN(A283)-SEARCH("status/",A283)-6))</f>
+        <f t="shared" si="4"/>
         <v>902298319975743488</v>
       </c>
       <c r="C283" t="s">
@@ -5866,7 +5962,7 @@
         <v>216</v>
       </c>
       <c r="B284" t="str">
-        <f>TRIM(RIGHT(A284,LEN(A284)-SEARCH("status/",A284)-6))</f>
+        <f t="shared" si="4"/>
         <v>901949996098084866</v>
       </c>
       <c r="C284" t="s">
@@ -5878,7 +5974,7 @@
         <v>158</v>
       </c>
       <c r="B285" t="str">
-        <f>TRIM(RIGHT(A285,LEN(A285)-SEARCH("status/",A285)-6))</f>
+        <f t="shared" si="4"/>
         <v>901884049601339392</v>
       </c>
       <c r="C285" t="s">
@@ -5890,7 +5986,7 @@
         <v>290</v>
       </c>
       <c r="B286" t="str">
-        <f>TRIM(RIGHT(A286,LEN(A286)-SEARCH("status/",A286)-6))</f>
+        <f t="shared" si="4"/>
         <v>902542577592922112</v>
       </c>
       <c r="C286" t="s">
@@ -5902,7 +5998,7 @@
         <v>323</v>
       </c>
       <c r="B287" t="str">
-        <f>TRIM(RIGHT(A287,LEN(A287)-SEARCH("status/",A287)-6))</f>
+        <f t="shared" si="4"/>
         <v>902711743109103616</v>
       </c>
       <c r="C287" t="s">
@@ -5914,7 +6010,7 @@
         <v>324</v>
       </c>
       <c r="B288" t="str">
-        <f>TRIM(RIGHT(A288,LEN(A288)-SEARCH("status/",A288)-6))</f>
+        <f t="shared" si="4"/>
         <v>902713068072960001</v>
       </c>
       <c r="C288" t="s">
@@ -5926,7 +6022,7 @@
         <v>348</v>
       </c>
       <c r="B289" t="str">
-        <f>TRIM(RIGHT(A289,LEN(A289)-SEARCH("status/",A289)-6))</f>
+        <f t="shared" si="4"/>
         <v>902361817736994816</v>
       </c>
       <c r="C289" t="s">
@@ -5938,7 +6034,7 @@
         <v>127</v>
       </c>
       <c r="B290" t="str">
-        <f>TRIM(RIGHT(A290,LEN(A290)-SEARCH("status/",A290)-6))</f>
+        <f t="shared" si="4"/>
         <v>901968532577157120</v>
       </c>
       <c r="C290" t="s">
@@ -5950,7 +6046,7 @@
         <v>258</v>
       </c>
       <c r="B291" t="str">
-        <f>TRIM(RIGHT(A291,LEN(A291)-SEARCH("status/",A291)-6))</f>
+        <f t="shared" si="4"/>
         <v>901948583246794753</v>
       </c>
       <c r="C291" t="s">
@@ -5962,7 +6058,7 @@
         <v>270</v>
       </c>
       <c r="B292" t="str">
-        <f>TRIM(RIGHT(A292,LEN(A292)-SEARCH("status/",A292)-6))</f>
+        <f t="shared" si="4"/>
         <v>901845643429335040</v>
       </c>
       <c r="C292" t="s">
@@ -5974,7 +6070,7 @@
         <v>129</v>
       </c>
       <c r="B293" t="str">
-        <f>TRIM(RIGHT(A293,LEN(A293)-SEARCH("status/",A293)-6))</f>
+        <f t="shared" si="4"/>
         <v>901831917657628672</v>
       </c>
       <c r="C293" t="s">
@@ -5986,7 +6082,7 @@
         <v>118</v>
       </c>
       <c r="B294" t="str">
-        <f>TRIM(RIGHT(A294,LEN(A294)-SEARCH("status/",A294)-6))</f>
+        <f t="shared" si="4"/>
         <v>901959598059474952</v>
       </c>
       <c r="C294" t="s">
@@ -5998,7 +6094,7 @@
         <v>242</v>
       </c>
       <c r="B295" t="str">
-        <f>TRIM(RIGHT(A295,LEN(A295)-SEARCH("status/",A295)-6))</f>
+        <f t="shared" si="4"/>
         <v>901966562709704704</v>
       </c>
       <c r="C295" t="s">
@@ -6010,7 +6106,7 @@
         <v>289</v>
       </c>
       <c r="B296" t="str">
-        <f>TRIM(RIGHT(A296,LEN(A296)-SEARCH("status/",A296)-6))</f>
+        <f t="shared" si="4"/>
         <v>902938490018684928</v>
       </c>
       <c r="C296" t="s">
@@ -6022,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="B297" t="str">
-        <f>TRIM(RIGHT(A297,LEN(A297)-SEARCH("status/",A297)-6))</f>
+        <f t="shared" si="4"/>
         <v>902224207316000768</v>
       </c>
       <c r="C297" t="s">
@@ -6034,7 +6130,7 @@
         <v>288</v>
       </c>
       <c r="B298" t="str">
-        <f>TRIM(RIGHT(A298,LEN(A298)-SEARCH("status/",A298)-6))</f>
+        <f t="shared" si="4"/>
         <v>902320098559614976</v>
       </c>
       <c r="C298" t="s">
@@ -6046,7 +6142,7 @@
         <v>112</v>
       </c>
       <c r="B299" t="str">
-        <f>TRIM(RIGHT(A299,LEN(A299)-SEARCH("status/",A299)-6))</f>
+        <f t="shared" si="4"/>
         <v>901907971193663488</v>
       </c>
       <c r="C299" t="s">
@@ -6058,7 +6154,7 @@
         <v>308</v>
       </c>
       <c r="B300" t="str">
-        <f>TRIM(RIGHT(A300,LEN(A300)-SEARCH("status/",A300)-6))</f>
+        <f t="shared" si="4"/>
         <v>902339607295127553</v>
       </c>
       <c r="C300" t="s">
@@ -6070,7 +6166,7 @@
         <v>205</v>
       </c>
       <c r="B301" t="str">
-        <f>TRIM(RIGHT(A301,LEN(A301)-SEARCH("status/",A301)-6))</f>
+        <f t="shared" si="4"/>
         <v>901925248643334144</v>
       </c>
       <c r="C301" t="s">
@@ -6082,7 +6178,7 @@
         <v>104</v>
       </c>
       <c r="B302" t="str">
-        <f>TRIM(RIGHT(A302,LEN(A302)-SEARCH("status/",A302)-6))</f>
+        <f t="shared" si="4"/>
         <v>901956024306987009</v>
       </c>
       <c r="C302" t="s">
@@ -6094,7 +6190,7 @@
         <v>4</v>
       </c>
       <c r="B303" t="str">
-        <f>TRIM(RIGHT(A303,LEN(A303)-SEARCH("status/",A303)-6))</f>
+        <f t="shared" si="4"/>
         <v>902056005827268608</v>
       </c>
       <c r="C303" t="s">
@@ -6106,7 +6202,7 @@
         <v>58</v>
       </c>
       <c r="B304" t="str">
-        <f>TRIM(RIGHT(A304,LEN(A304)-SEARCH("status/",A304)-6))</f>
+        <f t="shared" si="4"/>
         <v>901842719559094272</v>
       </c>
       <c r="C304" t="s">
@@ -6118,7 +6214,7 @@
         <v>209</v>
       </c>
       <c r="B305" t="str">
-        <f>TRIM(RIGHT(A305,LEN(A305)-SEARCH("status/",A305)-6))</f>
+        <f t="shared" si="4"/>
         <v>901917758027423745</v>
       </c>
       <c r="C305" t="s">
@@ -6130,7 +6226,7 @@
         <v>318</v>
       </c>
       <c r="B306" t="str">
-        <f>TRIM(RIGHT(A306,LEN(A306)-SEARCH("status/",A306)-6))</f>
+        <f t="shared" si="4"/>
         <v>902547904820326402</v>
       </c>
       <c r="C306" t="s">
@@ -6142,7 +6238,7 @@
         <v>284</v>
       </c>
       <c r="B307" t="str">
-        <f>TRIM(RIGHT(A307,LEN(A307)-SEARCH("status/",A307)-6))</f>
+        <f t="shared" si="4"/>
         <v>902645053381857280</v>
       </c>
       <c r="C307" t="s">
@@ -6154,7 +6250,7 @@
         <v>82</v>
       </c>
       <c r="B308" t="str">
-        <f>TRIM(RIGHT(A308,LEN(A308)-SEARCH("status/",A308)-6))</f>
+        <f t="shared" si="4"/>
         <v>901828799700066304</v>
       </c>
       <c r="C308" t="s">
@@ -6166,7 +6262,7 @@
         <v>273</v>
       </c>
       <c r="B309" t="str">
-        <f>TRIM(RIGHT(A309,LEN(A309)-SEARCH("status/",A309)-6))</f>
+        <f t="shared" si="4"/>
         <v>901878460766937088</v>
       </c>
       <c r="C309" t="s">
@@ -6178,7 +6274,7 @@
         <v>325</v>
       </c>
       <c r="B310" t="str">
-        <f>TRIM(RIGHT(A310,LEN(A310)-SEARCH("status/",A310)-6))</f>
+        <f t="shared" si="4"/>
         <v>902372780624240641</v>
       </c>
       <c r="C310" t="s">
@@ -6190,7 +6286,7 @@
         <v>176</v>
       </c>
       <c r="B311" t="str">
-        <f>TRIM(RIGHT(A311,LEN(A311)-SEARCH("status/",A311)-6))</f>
+        <f t="shared" si="4"/>
         <v>901817134967349248</v>
       </c>
       <c r="C311" t="s">
@@ -6202,7 +6298,7 @@
         <v>272</v>
       </c>
       <c r="B312" t="str">
-        <f>TRIM(RIGHT(A312,LEN(A312)-SEARCH("status/",A312)-6))</f>
+        <f t="shared" si="4"/>
         <v>901825254363975680</v>
       </c>
       <c r="C312" t="s">
@@ -6214,7 +6310,7 @@
         <v>266</v>
       </c>
       <c r="B313" t="str">
-        <f>TRIM(RIGHT(A313,LEN(A313)-SEARCH("status/",A313)-6))</f>
+        <f t="shared" si="4"/>
         <v>901893789308116993</v>
       </c>
       <c r="C313" t="s">
@@ -6226,7 +6322,7 @@
         <v>177</v>
       </c>
       <c r="B314" t="str">
-        <f>TRIM(RIGHT(A314,LEN(A314)-SEARCH("status/",A314)-6))</f>
+        <f t="shared" si="4"/>
         <v>901896669394030594</v>
       </c>
       <c r="C314" t="s">
@@ -6238,7 +6334,7 @@
         <v>130</v>
       </c>
       <c r="B315" t="str">
-        <f>TRIM(RIGHT(A315,LEN(A315)-SEARCH("status/",A315)-6))</f>
+        <f t="shared" si="4"/>
         <v>901988876398579713</v>
       </c>
       <c r="C315" t="s">
@@ -6250,7 +6346,7 @@
         <v>102</v>
       </c>
       <c r="B316" t="str">
-        <f>TRIM(RIGHT(A316,LEN(A316)-SEARCH("status/",A316)-6))</f>
+        <f t="shared" si="4"/>
         <v>901948917138542592</v>
       </c>
       <c r="C316" t="s">
@@ -6262,7 +6358,7 @@
         <v>292</v>
       </c>
       <c r="B317" t="str">
-        <f>TRIM(RIGHT(A317,LEN(A317)-SEARCH("status/",A317)-6))</f>
+        <f t="shared" si="4"/>
         <v>903088711025528832</v>
       </c>
       <c r="C317" t="s">
@@ -6274,7 +6370,7 @@
         <v>202</v>
       </c>
       <c r="B318" t="str">
-        <f>TRIM(RIGHT(A318,LEN(A318)-SEARCH("status/",A318)-6))</f>
+        <f t="shared" si="4"/>
         <v>901972966614986753</v>
       </c>
       <c r="C318" t="s">
@@ -6286,7 +6382,7 @@
         <v>75</v>
       </c>
       <c r="B319" t="str">
-        <f>TRIM(RIGHT(A319,LEN(A319)-SEARCH("status/",A319)-6))</f>
+        <f t="shared" si="4"/>
         <v>901882665896378370</v>
       </c>
       <c r="C319" t="s">
@@ -6298,7 +6394,7 @@
         <v>137</v>
       </c>
       <c r="B320" t="str">
-        <f>TRIM(RIGHT(A320,LEN(A320)-SEARCH("status/",A320)-6))</f>
+        <f t="shared" si="4"/>
         <v>901916492396187648</v>
       </c>
       <c r="C320" t="s">
@@ -6310,7 +6406,7 @@
         <v>140</v>
       </c>
       <c r="B321" t="str">
-        <f>TRIM(RIGHT(A321,LEN(A321)-SEARCH("status/",A321)-6))</f>
+        <f t="shared" si="4"/>
         <v>901948539856715778</v>
       </c>
       <c r="C321" t="s">
@@ -6322,7 +6418,7 @@
         <v>10</v>
       </c>
       <c r="B322" t="str">
-        <f>TRIM(RIGHT(A322,LEN(A322)-SEARCH("status/",A322)-6))</f>
+        <f t="shared" ref="B322:B385" si="5">TRIM(RIGHT(A322,LEN(A322)-SEARCH("status/",A322)-6))</f>
         <v>902886290898771971</v>
       </c>
       <c r="C322" t="s">
@@ -6334,7 +6430,7 @@
         <v>244</v>
       </c>
       <c r="B323" t="str">
-        <f>TRIM(RIGHT(A323,LEN(A323)-SEARCH("status/",A323)-6))</f>
+        <f t="shared" si="5"/>
         <v>901877822389714945</v>
       </c>
       <c r="C323" t="s">
@@ -6346,7 +6442,7 @@
         <v>248</v>
       </c>
       <c r="B324" t="str">
-        <f>TRIM(RIGHT(A324,LEN(A324)-SEARCH("status/",A324)-6))</f>
+        <f t="shared" si="5"/>
         <v>901940422712446976</v>
       </c>
       <c r="C324" t="s">
@@ -6358,7 +6454,7 @@
         <v>267</v>
       </c>
       <c r="B325" t="str">
-        <f>TRIM(RIGHT(A325,LEN(A325)-SEARCH("status/",A325)-6))</f>
+        <f t="shared" si="5"/>
         <v>901861194553798657</v>
       </c>
       <c r="C325" t="s">
@@ -6370,7 +6466,7 @@
         <v>204</v>
       </c>
       <c r="B326" t="str">
-        <f>TRIM(RIGHT(A326,LEN(A326)-SEARCH("status/",A326)-6))</f>
+        <f t="shared" si="5"/>
         <v>901976205930455040</v>
       </c>
       <c r="C326" t="s">
@@ -6382,7 +6478,7 @@
         <v>203</v>
       </c>
       <c r="B327" t="str">
-        <f>TRIM(RIGHT(A327,LEN(A327)-SEARCH("status/",A327)-6))</f>
+        <f t="shared" si="5"/>
         <v>901922763975389187</v>
       </c>
       <c r="C327" t="s">
@@ -6394,7 +6490,7 @@
         <v>313</v>
       </c>
       <c r="B328" t="str">
-        <f>TRIM(RIGHT(A328,LEN(A328)-SEARCH("status/",A328)-6))</f>
+        <f t="shared" si="5"/>
         <v>902351846089490432</v>
       </c>
       <c r="C328" t="s">
@@ -6406,7 +6502,7 @@
         <v>62</v>
       </c>
       <c r="B329" t="str">
-        <f>TRIM(RIGHT(A329,LEN(A329)-SEARCH("status/",A329)-6))</f>
+        <f t="shared" si="5"/>
         <v>901987662273249280</v>
       </c>
       <c r="C329" t="s">
@@ -6418,7 +6514,7 @@
         <v>220</v>
       </c>
       <c r="B330" t="str">
-        <f>TRIM(RIGHT(A330,LEN(A330)-SEARCH("status/",A330)-6))</f>
+        <f t="shared" si="5"/>
         <v>901941662489993216</v>
       </c>
       <c r="C330" t="s">
@@ -6430,7 +6526,7 @@
         <v>307</v>
       </c>
       <c r="B331" t="str">
-        <f>TRIM(RIGHT(A331,LEN(A331)-SEARCH("status/",A331)-6))</f>
+        <f t="shared" si="5"/>
         <v>902721315706093568</v>
       </c>
       <c r="C331" t="s">
@@ -6442,7 +6538,7 @@
         <v>187</v>
       </c>
       <c r="B332" t="str">
-        <f>TRIM(RIGHT(A332,LEN(A332)-SEARCH("status/",A332)-6))</f>
+        <f t="shared" si="5"/>
         <v>901982514520182784</v>
       </c>
       <c r="C332" t="s">
@@ -6454,7 +6550,7 @@
         <v>34</v>
       </c>
       <c r="B333" t="str">
-        <f>TRIM(RIGHT(A333,LEN(A333)-SEARCH("status/",A333)-6))</f>
+        <f t="shared" si="5"/>
         <v>902662398573768704</v>
       </c>
       <c r="C333" t="s">
@@ -6466,7 +6562,7 @@
         <v>296</v>
       </c>
       <c r="B334" t="str">
-        <f>TRIM(RIGHT(A334,LEN(A334)-SEARCH("status/",A334)-6))</f>
+        <f t="shared" si="5"/>
         <v>902576757416624129</v>
       </c>
       <c r="C334" t="s">
@@ -6478,7 +6574,7 @@
         <v>278</v>
       </c>
       <c r="B335" t="str">
-        <f>TRIM(RIGHT(A335,LEN(A335)-SEARCH("status/",A335)-6))</f>
+        <f t="shared" si="5"/>
         <v>902926693475680256</v>
       </c>
       <c r="C335" t="s">
@@ -6490,7 +6586,7 @@
         <v>361</v>
       </c>
       <c r="B336" t="str">
-        <f>TRIM(RIGHT(A336,LEN(A336)-SEARCH("status/",A336)-6))</f>
+        <f t="shared" si="5"/>
         <v>902853412554817536</v>
       </c>
       <c r="C336" t="s">
@@ -6502,7 +6598,7 @@
         <v>194</v>
       </c>
       <c r="B337" t="str">
-        <f>TRIM(RIGHT(A337,LEN(A337)-SEARCH("status/",A337)-6))</f>
+        <f t="shared" si="5"/>
         <v>901936944640352256</v>
       </c>
       <c r="C337" t="s">
@@ -6514,7 +6610,7 @@
         <v>6</v>
       </c>
       <c r="B338" t="str">
-        <f>TRIM(RIGHT(A338,LEN(A338)-SEARCH("status/",A338)-6))</f>
+        <f t="shared" si="5"/>
         <v>902240759134523393</v>
       </c>
       <c r="C338" t="s">
@@ -6526,7 +6622,7 @@
         <v>103</v>
       </c>
       <c r="B339" t="str">
-        <f>TRIM(RIGHT(A339,LEN(A339)-SEARCH("status/",A339)-6))</f>
+        <f t="shared" si="5"/>
         <v>901817986792783872</v>
       </c>
       <c r="C339" t="s">
@@ -6538,7 +6634,7 @@
         <v>41</v>
       </c>
       <c r="B340" t="str">
-        <f>TRIM(RIGHT(A340,LEN(A340)-SEARCH("status/",A340)-6))</f>
+        <f t="shared" si="5"/>
         <v>902711392972587008</v>
       </c>
       <c r="C340" t="s">
@@ -6550,7 +6646,7 @@
         <v>96</v>
       </c>
       <c r="B341" t="str">
-        <f>TRIM(RIGHT(A341,LEN(A341)-SEARCH("status/",A341)-6))</f>
+        <f t="shared" si="5"/>
         <v>901957206559555589</v>
       </c>
       <c r="C341" t="s">
@@ -6562,7 +6658,7 @@
         <v>74</v>
       </c>
       <c r="B342" t="str">
-        <f>TRIM(RIGHT(A342,LEN(A342)-SEARCH("status/",A342)-6))</f>
+        <f t="shared" si="5"/>
         <v>901845249894400001</v>
       </c>
       <c r="C342" t="s">
@@ -6574,7 +6670,7 @@
         <v>18</v>
       </c>
       <c r="B343" t="str">
-        <f>TRIM(RIGHT(A343,LEN(A343)-SEARCH("status/",A343)-6))</f>
+        <f t="shared" si="5"/>
         <v>902220283842461696</v>
       </c>
       <c r="C343" t="s">
@@ -6586,7 +6682,7 @@
         <v>282</v>
       </c>
       <c r="B344" t="str">
-        <f>TRIM(RIGHT(A344,LEN(A344)-SEARCH("status/",A344)-6))</f>
+        <f t="shared" si="5"/>
         <v>902713147458560001</v>
       </c>
       <c r="C344" t="s">
@@ -6598,7 +6694,7 @@
         <v>287</v>
       </c>
       <c r="B345" t="str">
-        <f>TRIM(RIGHT(A345,LEN(A345)-SEARCH("status/",A345)-6))</f>
+        <f t="shared" si="5"/>
         <v>902182661724233729</v>
       </c>
       <c r="C345" t="s">
@@ -6610,7 +6706,7 @@
         <v>115</v>
       </c>
       <c r="B346" t="str">
-        <f>TRIM(RIGHT(A346,LEN(A346)-SEARCH("status/",A346)-6))</f>
+        <f t="shared" si="5"/>
         <v>901881560504434690</v>
       </c>
       <c r="C346" t="s">
@@ -6622,7 +6718,7 @@
         <v>84</v>
       </c>
       <c r="B347" t="str">
-        <f>TRIM(RIGHT(A347,LEN(A347)-SEARCH("status/",A347)-6))</f>
+        <f t="shared" si="5"/>
         <v>901923910459019267</v>
       </c>
       <c r="C347" t="s">
@@ -6634,7 +6730,7 @@
         <v>319</v>
       </c>
       <c r="B348" t="str">
-        <f>TRIM(RIGHT(A348,LEN(A348)-SEARCH("status/",A348)-6))</f>
+        <f t="shared" si="5"/>
         <v>902345505300250625</v>
       </c>
       <c r="C348" t="s">
@@ -6646,7 +6742,7 @@
         <v>21</v>
       </c>
       <c r="B349" t="str">
-        <f>TRIM(RIGHT(A349,LEN(A349)-SEARCH("status/",A349)-6))</f>
+        <f t="shared" si="5"/>
         <v>902911924656107521</v>
       </c>
       <c r="C349" t="s">
@@ -6658,7 +6754,7 @@
         <v>51</v>
       </c>
       <c r="B350" t="str">
-        <f>TRIM(RIGHT(A350,LEN(A350)-SEARCH("status/",A350)-6))</f>
+        <f t="shared" si="5"/>
         <v>901920786432315393</v>
       </c>
       <c r="C350" t="s">
@@ -6670,7 +6766,7 @@
         <v>14</v>
       </c>
       <c r="B351" t="str">
-        <f>TRIM(RIGHT(A351,LEN(A351)-SEARCH("status/",A351)-6))</f>
+        <f t="shared" si="5"/>
         <v>902380154319712256</v>
       </c>
       <c r="C351" t="s">
@@ -6682,7 +6778,7 @@
         <v>321</v>
       </c>
       <c r="B352" t="str">
-        <f>TRIM(RIGHT(A352,LEN(A352)-SEARCH("status/",A352)-6))</f>
+        <f t="shared" si="5"/>
         <v>902691373660332032</v>
       </c>
       <c r="C352" t="s">
@@ -6694,7 +6790,7 @@
         <v>329</v>
       </c>
       <c r="B353" t="str">
-        <f>TRIM(RIGHT(A353,LEN(A353)-SEARCH("status/",A353)-6))</f>
+        <f t="shared" si="5"/>
         <v>902286122134499328</v>
       </c>
       <c r="C353" t="s">
@@ -6706,7 +6802,7 @@
         <v>19</v>
       </c>
       <c r="B354" t="str">
-        <f>TRIM(RIGHT(A354,LEN(A354)-SEARCH("status/",A354)-6))</f>
+        <f t="shared" si="5"/>
         <v>902333454913765376</v>
       </c>
       <c r="C354" t="s">
@@ -6718,7 +6814,7 @@
         <v>330</v>
       </c>
       <c r="B355" t="str">
-        <f>TRIM(RIGHT(A355,LEN(A355)-SEARCH("status/",A355)-6))</f>
+        <f t="shared" si="5"/>
         <v>903100669074145280</v>
       </c>
       <c r="C355" t="s">
@@ -6730,7 +6826,7 @@
         <v>293</v>
       </c>
       <c r="B356" t="str">
-        <f>TRIM(RIGHT(A356,LEN(A356)-SEARCH("status/",A356)-6))</f>
+        <f t="shared" si="5"/>
         <v>902938643618287616</v>
       </c>
       <c r="C356" t="s">
@@ -6742,7 +6838,7 @@
         <v>31</v>
       </c>
       <c r="B357" t="str">
-        <f>TRIM(RIGHT(A357,LEN(A357)-SEARCH("status/",A357)-6))</f>
+        <f t="shared" si="5"/>
         <v>902340381257457669</v>
       </c>
       <c r="C357" t="s">
@@ -6754,7 +6850,7 @@
         <v>229</v>
       </c>
       <c r="B358" t="str">
-        <f>TRIM(RIGHT(A358,LEN(A358)-SEARCH("status/",A358)-6))</f>
+        <f t="shared" si="5"/>
         <v>901963800894738437</v>
       </c>
       <c r="C358" t="s">
@@ -6766,7 +6862,7 @@
         <v>79</v>
       </c>
       <c r="B359" t="str">
-        <f>TRIM(RIGHT(A359,LEN(A359)-SEARCH("status/",A359)-6))</f>
+        <f t="shared" si="5"/>
         <v>901990404740001792</v>
       </c>
       <c r="C359" t="s">
@@ -6778,7 +6874,7 @@
         <v>180</v>
       </c>
       <c r="B360" t="str">
-        <f>TRIM(RIGHT(A360,LEN(A360)-SEARCH("status/",A360)-6))</f>
+        <f t="shared" si="5"/>
         <v>901982491627618304</v>
       </c>
       <c r="C360" t="s">
@@ -6790,7 +6886,7 @@
         <v>73</v>
       </c>
       <c r="B361" t="str">
-        <f>TRIM(RIGHT(A361,LEN(A361)-SEARCH("status/",A361)-6))</f>
+        <f t="shared" si="5"/>
         <v>901966097930481664</v>
       </c>
       <c r="C361" t="s">
@@ -6802,7 +6898,7 @@
         <v>43</v>
       </c>
       <c r="B362" t="str">
-        <f>TRIM(RIGHT(A362,LEN(A362)-SEARCH("status/",A362)-6))</f>
+        <f t="shared" si="5"/>
         <v>901970946197729280</v>
       </c>
       <c r="C362" t="s">
@@ -6814,7 +6910,7 @@
         <v>225</v>
       </c>
       <c r="B363" t="str">
-        <f>TRIM(RIGHT(A363,LEN(A363)-SEARCH("status/",A363)-6))</f>
+        <f t="shared" si="5"/>
         <v>902008347582504961</v>
       </c>
       <c r="C363" t="s">
@@ -6826,7 +6922,7 @@
         <v>87</v>
       </c>
       <c r="B364" t="str">
-        <f>TRIM(RIGHT(A364,LEN(A364)-SEARCH("status/",A364)-6))</f>
+        <f t="shared" si="5"/>
         <v>901994641972658176</v>
       </c>
       <c r="C364" t="s">
@@ -6838,7 +6934,7 @@
         <v>162</v>
       </c>
       <c r="B365" t="str">
-        <f>TRIM(RIGHT(A365,LEN(A365)-SEARCH("status/",A365)-6))</f>
+        <f t="shared" si="5"/>
         <v>901863115159154690</v>
       </c>
       <c r="C365" t="s">
@@ -6850,7 +6946,7 @@
         <v>35</v>
       </c>
       <c r="B366" t="str">
-        <f>TRIM(RIGHT(A366,LEN(A366)-SEARCH("status/",A366)-6))</f>
+        <f t="shared" si="5"/>
         <v>902597260739010560</v>
       </c>
       <c r="C366" t="s">
@@ -6862,7 +6958,7 @@
         <v>143</v>
       </c>
       <c r="B367" t="str">
-        <f>TRIM(RIGHT(A367,LEN(A367)-SEARCH("status/",A367)-6))</f>
+        <f t="shared" si="5"/>
         <v>901996620220424194</v>
       </c>
       <c r="C367" t="s">
@@ -6874,299 +6970,395 @@
         <v>110</v>
       </c>
       <c r="B368" t="str">
-        <f>TRIM(RIGHT(A368,LEN(A368)-SEARCH("status/",A368)-6))</f>
+        <f t="shared" si="5"/>
         <v>901928512583544838</v>
       </c>
       <c r="C368" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>665</v>
       </c>
       <c r="B369" t="str">
-        <f>TRIM(RIGHT(A369,LEN(A369)-SEARCH("status/",A369)-6))</f>
+        <f t="shared" si="5"/>
         <v>906933644442423298</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C369" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>666</v>
       </c>
       <c r="B370" t="str">
-        <f t="shared" ref="B370:B401" si="0">TRIM(RIGHT(A370,LEN(A370)-SEARCH("status/",A370)-6))</f>
+        <f t="shared" ref="B370:B401" si="6">TRIM(RIGHT(A370,LEN(A370)-SEARCH("status/",A370)-6))</f>
         <v>906648106359390208</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C370" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>667</v>
       </c>
       <c r="B371" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>907000475689603072</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C371" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>668</v>
       </c>
       <c r="B372" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906928507669958656</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C372" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>669</v>
       </c>
       <c r="B373" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906724128958435328</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C373" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>670</v>
       </c>
       <c r="B374" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906954381018517505</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C374" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>671</v>
       </c>
       <c r="B375" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906907700428201989</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C375" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>672</v>
       </c>
       <c r="B376" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>907002619293573120</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C376" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>673</v>
       </c>
       <c r="B377" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906959665237577728</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C377" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>674</v>
       </c>
       <c r="B378" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>907037958200545280</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C378" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>675</v>
       </c>
       <c r="B379" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906947734669840385</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C379" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>676</v>
       </c>
       <c r="B380" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906913985617960960</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C380" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>677</v>
       </c>
       <c r="B381" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906903136782123009</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C381" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>678</v>
       </c>
       <c r="B382" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906891894243954690</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C382" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>679</v>
       </c>
       <c r="B383" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>907053535438659584</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C383" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>680</v>
       </c>
       <c r="B384" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906769362840776704</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C384" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>681</v>
       </c>
       <c r="B385" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906934934832476160</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C385" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>682</v>
       </c>
       <c r="B386" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>907062924782555136</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C386" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>683</v>
       </c>
       <c r="B387" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906568163558658049</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C387" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>684</v>
       </c>
       <c r="B388" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>907025176302379015</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C388" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>685</v>
       </c>
       <c r="B389" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>907025236855586816</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C389" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>686</v>
       </c>
       <c r="B390" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906668907108487169</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C390" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>687</v>
       </c>
       <c r="B391" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906865468912406528</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C391" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>688</v>
       </c>
       <c r="B392" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906993884521168897</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C392" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>689</v>
       </c>
       <c r="B393" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>907014833865986049</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C393" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>690</v>
       </c>
       <c r="B394" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906955463895515139</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C394" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>691</v>
       </c>
       <c r="B395" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>907138861720940544</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C395" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>692</v>
       </c>
       <c r="B396" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906503986924093441</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C396" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>693</v>
       </c>
       <c r="B397" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>907017979367510017</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C397" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>694</v>
       </c>
       <c r="B398" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>907136895620046848</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C398" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>695</v>
       </c>
       <c r="B399" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>907008014879772677</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C399" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>696</v>
       </c>
       <c r="B400" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906569344800444416</v>
+      </c>
+      <c r="C400" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -7174,7 +7366,7 @@
         <v>697</v>
       </c>
       <c r="B401" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>906929636189265922</v>
       </c>
     </row>
